--- a/resultados/Venda de Drone/Com SPAD 2 Drones/vel05/field_64ha_100ha_10%_6m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 2 Drones/vel05/field_64ha_100ha_10%_6m_0_TSP/Planilha_Unificada.xlsx
@@ -5577,28 +5577,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>8341.016560841841</v>
+        <v>8634.295132833116</v>
       </c>
       <c r="AB2" t="n">
-        <v>11412.54683822442</v>
+        <v>11813.82351896035</v>
       </c>
       <c r="AC2" t="n">
-        <v>10323.34938559394</v>
+        <v>10686.32878311577</v>
       </c>
       <c r="AD2" t="n">
-        <v>8341016.560841842</v>
+        <v>8634295.132833116</v>
       </c>
       <c r="AE2" t="n">
-        <v>11412546.83822442</v>
+        <v>11813823.51896035</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.585205910265527e-07</v>
+        <v>6.610328192695121e-07</v>
       </c>
       <c r="AG2" t="n">
-        <v>67</v>
+        <v>66.28255208333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>10323349.38559394</v>
+        <v>10686328.78311577</v>
       </c>
     </row>
     <row r="3">
@@ -5683,28 +5683,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>3920.552582992965</v>
+        <v>4110.315992784459</v>
       </c>
       <c r="AB3" t="n">
-        <v>5364.273006624157</v>
+        <v>5623.915675671685</v>
       </c>
       <c r="AC3" t="n">
-        <v>4852.314319676195</v>
+        <v>5087.17705680059</v>
       </c>
       <c r="AD3" t="n">
-        <v>3920552.582992965</v>
+        <v>4110315.992784459</v>
       </c>
       <c r="AE3" t="n">
-        <v>5364273.006624157</v>
+        <v>5623915.675671685</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.271346697036842e-07</v>
+        <v>1.048284177656478e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>42</v>
+        <v>41.796875</v>
       </c>
       <c r="AH3" t="n">
-        <v>4852314.319676195</v>
+        <v>5087177.056800591</v>
       </c>
     </row>
     <row r="4">
@@ -5789,28 +5789,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>3183.068593892858</v>
+        <v>3347.017241152473</v>
       </c>
       <c r="AB4" t="n">
-        <v>4355.214877239974</v>
+        <v>4579.536649324436</v>
       </c>
       <c r="AC4" t="n">
-        <v>3939.559281938498</v>
+        <v>4142.472098932794</v>
       </c>
       <c r="AD4" t="n">
-        <v>3183068.593892858</v>
+        <v>3347017.241152473</v>
       </c>
       <c r="AE4" t="n">
-        <v>4355214.877239974</v>
+        <v>4579536.649324437</v>
       </c>
       <c r="AF4" t="n">
-        <v>8.29743940633878e-07</v>
+        <v>1.196212312125464e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>37</v>
+        <v>36.630859375</v>
       </c>
       <c r="AH4" t="n">
-        <v>3939559.281938498</v>
+        <v>4142472.098932795</v>
       </c>
     </row>
     <row r="5">
@@ -5895,28 +5895,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>2867.309157676348</v>
+        <v>3013.991158853546</v>
       </c>
       <c r="AB5" t="n">
-        <v>3923.178886285347</v>
+        <v>4123.875671449183</v>
       </c>
       <c r="AC5" t="n">
-        <v>3548.756199594275</v>
+        <v>3730.298765261774</v>
       </c>
       <c r="AD5" t="n">
-        <v>2867309.157676348</v>
+        <v>3013991.158853546</v>
       </c>
       <c r="AE5" t="n">
-        <v>3923178.886285347</v>
+        <v>4123875.671449183</v>
       </c>
       <c r="AF5" t="n">
-        <v>8.857635607959491e-07</v>
+        <v>1.276973805011171e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>35</v>
+        <v>34.31315104166666</v>
       </c>
       <c r="AH5" t="n">
-        <v>3548756.199594275</v>
+        <v>3730298.765261774</v>
       </c>
     </row>
     <row r="6">
@@ -6001,28 +6001,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>2694.312698718052</v>
+        <v>2840.909359040679</v>
       </c>
       <c r="AB6" t="n">
-        <v>3686.477499073468</v>
+        <v>3887.057517115107</v>
       </c>
       <c r="AC6" t="n">
-        <v>3334.645260565423</v>
+        <v>3516.082203200983</v>
       </c>
       <c r="AD6" t="n">
-        <v>2694312.698718052</v>
+        <v>2840909.359040679</v>
       </c>
       <c r="AE6" t="n">
-        <v>3686477.499073468</v>
+        <v>3887057.517115107</v>
       </c>
       <c r="AF6" t="n">
-        <v>9.197487970276057e-07</v>
+        <v>1.325969110695167e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>34</v>
+        <v>33.046875</v>
       </c>
       <c r="AH6" t="n">
-        <v>3334645.260565423</v>
+        <v>3516082.203200983</v>
       </c>
     </row>
     <row r="7">
@@ -6107,28 +6107,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>2575.045980635508</v>
+        <v>2713.094614017224</v>
       </c>
       <c r="AB7" t="n">
-        <v>3523.291513716671</v>
+        <v>3712.17574418542</v>
       </c>
       <c r="AC7" t="n">
-        <v>3187.033516618116</v>
+        <v>3357.890901231603</v>
       </c>
       <c r="AD7" t="n">
-        <v>2575045.980635508</v>
+        <v>2713094.614017224</v>
       </c>
       <c r="AE7" t="n">
-        <v>3523291.513716671</v>
+        <v>3712175.74418542</v>
       </c>
       <c r="AF7" t="n">
-        <v>9.434637695628823e-07</v>
+        <v>1.360158142683449e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>33</v>
+        <v>32.21354166666666</v>
       </c>
       <c r="AH7" t="n">
-        <v>3187033.516618116</v>
+        <v>3357890.901231603</v>
       </c>
     </row>
     <row r="8">
@@ -6213,28 +6213,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>2486.110621112142</v>
+        <v>2624.244505839878</v>
       </c>
       <c r="AB8" t="n">
-        <v>3401.606231265644</v>
+        <v>3590.607106387041</v>
       </c>
       <c r="AC8" t="n">
-        <v>3076.961706737853</v>
+        <v>3247.924603602051</v>
       </c>
       <c r="AD8" t="n">
-        <v>2486110.621112142</v>
+        <v>2624244.505839878</v>
       </c>
       <c r="AE8" t="n">
-        <v>3401606.231265644</v>
+        <v>3590607.106387041</v>
       </c>
       <c r="AF8" t="n">
-        <v>9.605497537123142e-07</v>
+        <v>1.38479039801359e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>32</v>
+        <v>31.640625</v>
       </c>
       <c r="AH8" t="n">
-        <v>3076961.706737853</v>
+        <v>3247924.603602051</v>
       </c>
     </row>
     <row r="9">
@@ -6319,28 +6319,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>2418.753435778126</v>
+        <v>2556.71672830527</v>
       </c>
       <c r="AB9" t="n">
-        <v>3309.445158702345</v>
+        <v>3498.212622048896</v>
       </c>
       <c r="AC9" t="n">
-        <v>2993.596357591121</v>
+        <v>3164.348119172669</v>
       </c>
       <c r="AD9" t="n">
-        <v>2418753.435778127</v>
+        <v>2556716.72830527</v>
       </c>
       <c r="AE9" t="n">
-        <v>3309445.158702345</v>
+        <v>3498212.622048896</v>
       </c>
       <c r="AF9" t="n">
-        <v>9.743679266856252e-07</v>
+        <v>1.404711566258731e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>32</v>
+        <v>31.19466145833333</v>
       </c>
       <c r="AH9" t="n">
-        <v>2993596.357591121</v>
+        <v>3164348.119172669</v>
       </c>
     </row>
     <row r="10">
@@ -6425,28 +6425,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>2357.57965910195</v>
+        <v>2495.628202975114</v>
       </c>
       <c r="AB10" t="n">
-        <v>3225.74449865744</v>
+        <v>3414.62860665664</v>
       </c>
       <c r="AC10" t="n">
-        <v>2917.88397106629</v>
+        <v>3088.74124489855</v>
       </c>
       <c r="AD10" t="n">
-        <v>2357579.65910195</v>
+        <v>2495628.202975114</v>
       </c>
       <c r="AE10" t="n">
-        <v>3225744.49865744</v>
+        <v>3414628.60665664</v>
       </c>
       <c r="AF10" t="n">
-        <v>9.845448243484014e-07</v>
+        <v>1.419383237466301e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>31</v>
+        <v>30.869140625</v>
       </c>
       <c r="AH10" t="n">
-        <v>2917883.97106629</v>
+        <v>3088741.24489855</v>
       </c>
     </row>
     <row r="11">
@@ -6531,28 +6531,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>2314.87921047159</v>
+        <v>2452.927754344754</v>
       </c>
       <c r="AB11" t="n">
-        <v>3167.319861030537</v>
+        <v>3356.203969029737</v>
       </c>
       <c r="AC11" t="n">
-        <v>2865.035298855007</v>
+        <v>3035.892572687267</v>
       </c>
       <c r="AD11" t="n">
-        <v>2314879.21047159</v>
+        <v>2452927.754344754</v>
       </c>
       <c r="AE11" t="n">
-        <v>3167319.861030537</v>
+        <v>3356203.969029737</v>
       </c>
       <c r="AF11" t="n">
-        <v>9.923875711710913e-07</v>
+        <v>1.4306898464703e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>31</v>
+        <v>30.625</v>
       </c>
       <c r="AH11" t="n">
-        <v>2865035.298855007</v>
+        <v>3035892.572687267</v>
       </c>
     </row>
     <row r="12">
@@ -6637,28 +6637,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>2270.28376422776</v>
+        <v>2408.161715900332</v>
       </c>
       <c r="AB12" t="n">
-        <v>3106.30240406749</v>
+        <v>3294.953100291843</v>
       </c>
       <c r="AC12" t="n">
-        <v>2809.841262345977</v>
+        <v>2980.487400895586</v>
       </c>
       <c r="AD12" t="n">
-        <v>2270283.76422776</v>
+        <v>2408161.715900332</v>
       </c>
       <c r="AE12" t="n">
-        <v>3106302.40406749</v>
+        <v>3294953.100291844</v>
       </c>
       <c r="AF12" t="n">
-        <v>9.999502198929708e-07</v>
+        <v>1.44159264800987e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>31</v>
+        <v>30.39713541666667</v>
       </c>
       <c r="AH12" t="n">
-        <v>2809841.262345977</v>
+        <v>2980487.400895586</v>
       </c>
     </row>
     <row r="13">
@@ -6743,28 +6743,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>2233.847058557904</v>
+        <v>2363.262324144136</v>
       </c>
       <c r="AB13" t="n">
-        <v>3056.448095895987</v>
+        <v>3233.519771669648</v>
       </c>
       <c r="AC13" t="n">
-        <v>2764.744979375403</v>
+        <v>2924.917182934877</v>
       </c>
       <c r="AD13" t="n">
-        <v>2233847.058557904</v>
+        <v>2363262.324144136</v>
       </c>
       <c r="AE13" t="n">
-        <v>3056448.095895987</v>
+        <v>3233519.771669648</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.005272083808368e-06</v>
+        <v>1.449264989834013e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>31</v>
+        <v>30.23111979166667</v>
       </c>
       <c r="AH13" t="n">
-        <v>2764744.979375402</v>
+        <v>2924917.182934877</v>
       </c>
     </row>
     <row r="14">
@@ -6849,28 +6849,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>2200.410938511995</v>
+        <v>2329.826204098226</v>
       </c>
       <c r="AB14" t="n">
-        <v>3010.699321351661</v>
+        <v>3187.770997125323</v>
       </c>
       <c r="AC14" t="n">
-        <v>2723.362403664781</v>
+        <v>2883.534607224255</v>
       </c>
       <c r="AD14" t="n">
-        <v>2200410.938511995</v>
+        <v>2329826.204098227</v>
       </c>
       <c r="AE14" t="n">
-        <v>3010699.321351661</v>
+        <v>3187770.997125322</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.010500581690161e-06</v>
+        <v>1.456802729170012e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>31</v>
+        <v>30.078125</v>
       </c>
       <c r="AH14" t="n">
-        <v>2723362.403664781</v>
+        <v>2883534.607224255</v>
       </c>
     </row>
     <row r="15">
@@ -6955,28 +6955,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>2158.85434362464</v>
+        <v>2296.817546643236</v>
       </c>
       <c r="AB15" t="n">
-        <v>2953.839754879035</v>
+        <v>3142.607095756211</v>
       </c>
       <c r="AC15" t="n">
-        <v>2671.929434413514</v>
+        <v>2842.68108521388</v>
       </c>
       <c r="AD15" t="n">
-        <v>2158854.34362464</v>
+        <v>2296817.546643236</v>
       </c>
       <c r="AE15" t="n">
-        <v>2953839.754879035</v>
+        <v>3142607.095756211</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.01479541923592e-06</v>
+        <v>1.462994443624583e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>30</v>
+        <v>29.94791666666667</v>
       </c>
       <c r="AH15" t="n">
-        <v>2671929.434413514</v>
+        <v>2842681.08521388</v>
       </c>
     </row>
     <row r="16">
@@ -7061,28 +7061,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>2127.365001391135</v>
+        <v>2265.32820440973</v>
       </c>
       <c r="AB16" t="n">
-        <v>2910.754647623419</v>
+        <v>3099.521988500592</v>
       </c>
       <c r="AC16" t="n">
-        <v>2632.956309324045</v>
+        <v>2803.707960124411</v>
       </c>
       <c r="AD16" t="n">
-        <v>2127365.001391135</v>
+        <v>2265328.20440973</v>
       </c>
       <c r="AE16" t="n">
-        <v>2910754.647623419</v>
+        <v>3099521.988500592</v>
       </c>
       <c r="AF16" t="n">
-        <v>1.018156596445644e-06</v>
+        <v>1.467840133197725e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>30</v>
+        <v>29.85026041666667</v>
       </c>
       <c r="AH16" t="n">
-        <v>2632956.309324045</v>
+        <v>2803707.960124411</v>
       </c>
     </row>
     <row r="17">
@@ -7167,28 +7167,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>2098.54475729145</v>
+        <v>2236.507960310045</v>
       </c>
       <c r="AB17" t="n">
-        <v>2871.321518186795</v>
+        <v>3060.088859063966</v>
       </c>
       <c r="AC17" t="n">
-        <v>2597.286622416109</v>
+        <v>2768.038273216473</v>
       </c>
       <c r="AD17" t="n">
-        <v>2098544.75729145</v>
+        <v>2236507.960310045</v>
       </c>
       <c r="AE17" t="n">
-        <v>2871321.518186796</v>
+        <v>3060088.859063966</v>
       </c>
       <c r="AF17" t="n">
-        <v>1.021424407621765e-06</v>
+        <v>1.472551220282725e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>30</v>
+        <v>29.755859375</v>
       </c>
       <c r="AH17" t="n">
-        <v>2597286.622416109</v>
+        <v>2768038.273216473</v>
       </c>
     </row>
     <row r="18">
@@ -7273,28 +7273,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>2068.89715325589</v>
+        <v>2198.397670188145</v>
       </c>
       <c r="AB18" t="n">
-        <v>2830.756358385363</v>
+        <v>3007.944678811839</v>
       </c>
       <c r="AC18" t="n">
-        <v>2560.592944532566</v>
+        <v>2720.870660342796</v>
       </c>
       <c r="AD18" t="n">
-        <v>2068897.15325589</v>
+        <v>2198397.670188145</v>
       </c>
       <c r="AE18" t="n">
-        <v>2830756.358385364</v>
+        <v>3007944.678811839</v>
       </c>
       <c r="AF18" t="n">
-        <v>1.023851924495454e-06</v>
+        <v>1.476050884974439e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>30</v>
+        <v>29.68424479166667</v>
       </c>
       <c r="AH18" t="n">
-        <v>2560592.944532566</v>
+        <v>2720870.660342796</v>
       </c>
     </row>
     <row r="19">
@@ -7379,28 +7379,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>2052.030684705931</v>
+        <v>2181.531201638184</v>
       </c>
       <c r="AB19" t="n">
-        <v>2807.678912019233</v>
+        <v>2984.867232445534</v>
       </c>
       <c r="AC19" t="n">
-        <v>2539.71797725822</v>
+        <v>2699.995693068404</v>
       </c>
       <c r="AD19" t="n">
-        <v>2052030.684705931</v>
+        <v>2181531.201638184</v>
       </c>
       <c r="AE19" t="n">
-        <v>2807678.912019233</v>
+        <v>2984867.232445534</v>
       </c>
       <c r="AF19" t="n">
-        <v>1.025439147066713e-06</v>
+        <v>1.478339127272867e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>30</v>
+        <v>29.638671875</v>
       </c>
       <c r="AH19" t="n">
-        <v>2539717.97725822</v>
+        <v>2699995.693068404</v>
       </c>
     </row>
     <row r="20">
@@ -7485,28 +7485,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>2042.818257233979</v>
+        <v>2172.318774166231</v>
       </c>
       <c r="AB20" t="n">
-        <v>2795.074062328491</v>
+        <v>2972.262382754792</v>
       </c>
       <c r="AC20" t="n">
-        <v>2528.316116730945</v>
+        <v>2688.593832541128</v>
       </c>
       <c r="AD20" t="n">
-        <v>2042818.257233979</v>
+        <v>2172318.774166231</v>
       </c>
       <c r="AE20" t="n">
-        <v>2795074.062328491</v>
+        <v>2972262.382754792</v>
       </c>
       <c r="AF20" t="n">
-        <v>1.026279441369144e-06</v>
+        <v>1.479550549666153e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>30</v>
+        <v>29.61588541666667</v>
       </c>
       <c r="AH20" t="n">
-        <v>2528316.116730945</v>
+        <v>2688593.832541129</v>
       </c>
     </row>
     <row r="21">
@@ -7591,28 +7591,28 @@
         <v>10</v>
       </c>
       <c r="AA21" t="n">
-        <v>2050.285544338231</v>
+        <v>2179.786061270484</v>
       </c>
       <c r="AB21" t="n">
-        <v>2805.291133977987</v>
+        <v>2982.479454404287</v>
       </c>
       <c r="AC21" t="n">
-        <v>2537.558085401963</v>
+        <v>2697.835801212147</v>
       </c>
       <c r="AD21" t="n">
-        <v>2050285.544338231</v>
+        <v>2179786.061270484</v>
       </c>
       <c r="AE21" t="n">
-        <v>2805291.133977987</v>
+        <v>2982479.454404288</v>
       </c>
       <c r="AF21" t="n">
-        <v>1.026746271537161e-06</v>
+        <v>1.480223562106867e-06</v>
       </c>
       <c r="AG21" t="n">
-        <v>30</v>
+        <v>29.60286458333333</v>
       </c>
       <c r="AH21" t="n">
-        <v>2537558.085401963</v>
+        <v>2697835.801212146</v>
       </c>
     </row>
     <row r="22">
@@ -7697,28 +7697,28 @@
         <v>10</v>
       </c>
       <c r="AA22" t="n">
-        <v>2059.044539212758</v>
+        <v>2188.545056145011</v>
       </c>
       <c r="AB22" t="n">
-        <v>2817.275577184896</v>
+        <v>2994.463897611196</v>
       </c>
       <c r="AC22" t="n">
-        <v>2548.398750169476</v>
+        <v>2708.676465979659</v>
       </c>
       <c r="AD22" t="n">
-        <v>2059044.539212758</v>
+        <v>2188545.056145011</v>
       </c>
       <c r="AE22" t="n">
-        <v>2817275.577184896</v>
+        <v>2994463.897611196</v>
       </c>
       <c r="AF22" t="n">
-        <v>1.026746271537161e-06</v>
+        <v>1.480223562106867e-06</v>
       </c>
       <c r="AG22" t="n">
-        <v>30</v>
+        <v>29.60286458333333</v>
       </c>
       <c r="AH22" t="n">
-        <v>2548398.750169476</v>
+        <v>2708676.465979659</v>
       </c>
     </row>
   </sheetData>
@@ -7994,28 +7994,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>5768.47052567806</v>
+        <v>6012.405127064006</v>
       </c>
       <c r="AB2" t="n">
-        <v>7892.675860191976</v>
+        <v>8226.437943443341</v>
       </c>
       <c r="AC2" t="n">
-        <v>7139.409953535099</v>
+        <v>7441.318251998967</v>
       </c>
       <c r="AD2" t="n">
-        <v>5768470.52567806</v>
+        <v>6012405.127064005</v>
       </c>
       <c r="AE2" t="n">
-        <v>7892675.860191977</v>
+        <v>8226437.943443341</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.629989516797937e-07</v>
+        <v>8.242092858281922e-07</v>
       </c>
       <c r="AG2" t="n">
-        <v>56</v>
+        <v>55.84309895833334</v>
       </c>
       <c r="AH2" t="n">
-        <v>7139409.953535099</v>
+        <v>7441318.251998967</v>
       </c>
     </row>
     <row r="3">
@@ -8100,28 +8100,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>3155.104784641885</v>
+        <v>3323.367914887375</v>
       </c>
       <c r="AB3" t="n">
-        <v>4316.953559746596</v>
+        <v>4547.178597793887</v>
       </c>
       <c r="AC3" t="n">
-        <v>3904.949570886592</v>
+        <v>4113.202254425511</v>
       </c>
       <c r="AD3" t="n">
-        <v>3155104.784641885</v>
+        <v>3323367.914887375</v>
       </c>
       <c r="AE3" t="n">
-        <v>4316953.559746596</v>
+        <v>4547178.597793887</v>
       </c>
       <c r="AF3" t="n">
-        <v>8.119972871456554e-07</v>
+        <v>1.188733481893569e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>39</v>
+        <v>38.720703125</v>
       </c>
       <c r="AH3" t="n">
-        <v>3904949.570886592</v>
+        <v>4113202.254425511</v>
       </c>
     </row>
     <row r="4">
@@ -8206,28 +8206,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>2640.856553870769</v>
+        <v>2792.284837006252</v>
       </c>
       <c r="AB4" t="n">
-        <v>3613.336443374743</v>
+        <v>3820.527300905085</v>
       </c>
       <c r="AC4" t="n">
-        <v>3268.48468456847</v>
+        <v>3455.901537450304</v>
       </c>
       <c r="AD4" t="n">
-        <v>2640856.553870769</v>
+        <v>2792284.837006252</v>
       </c>
       <c r="AE4" t="n">
-        <v>3613336.443374743</v>
+        <v>3820527.300905085</v>
       </c>
       <c r="AF4" t="n">
-        <v>9.04719708420763e-07</v>
+        <v>1.324475618519931e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>35</v>
+        <v>34.75260416666666</v>
       </c>
       <c r="AH4" t="n">
-        <v>3268484.68456847</v>
+        <v>3455901.537450304</v>
       </c>
     </row>
     <row r="5">
@@ -8312,28 +8312,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>2410.351254624009</v>
+        <v>2553.362114204489</v>
       </c>
       <c r="AB5" t="n">
-        <v>3297.948923769209</v>
+        <v>3493.622691041076</v>
       </c>
       <c r="AC5" t="n">
-        <v>2983.197307184937</v>
+        <v>3160.196244738227</v>
       </c>
       <c r="AD5" t="n">
-        <v>2410351.254624009</v>
+        <v>2553362.114204489</v>
       </c>
       <c r="AE5" t="n">
-        <v>3297948.923769209</v>
+        <v>3493622.691041077</v>
       </c>
       <c r="AF5" t="n">
-        <v>9.534955654456894e-07</v>
+        <v>1.395881638307757e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>33</v>
+        <v>32.97526041666666</v>
       </c>
       <c r="AH5" t="n">
-        <v>2983197.307184936</v>
+        <v>3160196.244738227</v>
       </c>
     </row>
     <row r="6">
@@ -8418,28 +8418,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>2276.357077294135</v>
+        <v>2419.282596020044</v>
       </c>
       <c r="AB6" t="n">
-        <v>3114.612178940568</v>
+        <v>3310.169179090239</v>
       </c>
       <c r="AC6" t="n">
-        <v>2817.357963968012</v>
+        <v>2994.251278489363</v>
       </c>
       <c r="AD6" t="n">
-        <v>2276357.077294135</v>
+        <v>2419282.596020044</v>
       </c>
       <c r="AE6" t="n">
-        <v>3114612.178940568</v>
+        <v>3310169.179090239</v>
       </c>
       <c r="AF6" t="n">
-        <v>9.833405947936147e-07</v>
+        <v>1.439573638534367e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>32</v>
+        <v>31.97591145833333</v>
       </c>
       <c r="AH6" t="n">
-        <v>2817357.963968012</v>
+        <v>2994251.278489363</v>
       </c>
     </row>
     <row r="7">
@@ -8524,28 +8524,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>2185.876337335256</v>
+        <v>2320.384522014715</v>
       </c>
       <c r="AB7" t="n">
-        <v>2990.812438800127</v>
+        <v>3174.852471161046</v>
       </c>
       <c r="AC7" t="n">
-        <v>2705.373497272664</v>
+        <v>2871.849007246745</v>
       </c>
       <c r="AD7" t="n">
-        <v>2185876.337335256</v>
+        <v>2320384.522014715</v>
       </c>
       <c r="AE7" t="n">
-        <v>2990812.438800127</v>
+        <v>3174852.471161046</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.003913382014029e-06</v>
+        <v>1.469691425098341e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>32</v>
+        <v>31.318359375</v>
       </c>
       <c r="AH7" t="n">
-        <v>2705373.497272664</v>
+        <v>2871849.007246745</v>
       </c>
     </row>
     <row r="8">
@@ -8630,28 +8630,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>2110.221931590636</v>
+        <v>2244.815367616116</v>
       </c>
       <c r="AB8" t="n">
-        <v>2887.298743223515</v>
+        <v>3071.455420237076</v>
       </c>
       <c r="AC8" t="n">
-        <v>2611.739003519499</v>
+        <v>2778.320025744291</v>
       </c>
       <c r="AD8" t="n">
-        <v>2110221.931590636</v>
+        <v>2244815.367616116</v>
       </c>
       <c r="AE8" t="n">
-        <v>2887298.743223514</v>
+        <v>3071455.420237076</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.01849784619376e-06</v>
+        <v>1.491042532005196e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>31</v>
+        <v>30.87239583333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>2611739.003519499</v>
+        <v>2778320.025744291</v>
       </c>
     </row>
     <row r="9">
@@ -8736,28 +8736,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>2050.254863794041</v>
+        <v>2184.848299819518</v>
       </c>
       <c r="AB9" t="n">
-        <v>2805.249155503896</v>
+        <v>2989.405832517279</v>
       </c>
       <c r="AC9" t="n">
-        <v>2537.520113294521</v>
+        <v>2704.101135519267</v>
       </c>
       <c r="AD9" t="n">
-        <v>2050254.863794041</v>
+        <v>2184848.299819518</v>
       </c>
       <c r="AE9" t="n">
-        <v>2805249.155503896</v>
+        <v>2989405.832517279</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.030281320564138e-06</v>
+        <v>1.508293095201463e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>31</v>
+        <v>30.517578125</v>
       </c>
       <c r="AH9" t="n">
-        <v>2537520.113294521</v>
+        <v>2704101.135519267</v>
       </c>
     </row>
     <row r="10">
@@ -8842,28 +8842,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1997.642004725183</v>
+        <v>2123.818106704208</v>
       </c>
       <c r="AB10" t="n">
-        <v>2733.261920610358</v>
+        <v>2905.901629834815</v>
       </c>
       <c r="AC10" t="n">
-        <v>2472.403239064504</v>
+        <v>2628.566456741932</v>
       </c>
       <c r="AD10" t="n">
-        <v>1997642.004725183</v>
+        <v>2123818.106704208</v>
       </c>
       <c r="AE10" t="n">
-        <v>2733261.920610358</v>
+        <v>2905901.629834815</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.039650148547143e-06</v>
+        <v>1.522008706923085e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>31</v>
+        <v>30.244140625</v>
       </c>
       <c r="AH10" t="n">
-        <v>2472403.239064504</v>
+        <v>2628566.456741932</v>
       </c>
     </row>
     <row r="11">
@@ -8948,28 +8948,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1945.180339743682</v>
+        <v>2071.356441722706</v>
       </c>
       <c r="AB11" t="n">
-        <v>2661.481556137355</v>
+        <v>2834.121265361811</v>
       </c>
       <c r="AC11" t="n">
-        <v>2407.473491832429</v>
+        <v>2563.636709509859</v>
       </c>
       <c r="AD11" t="n">
-        <v>1945180.339743681</v>
+        <v>2071356.441722706</v>
       </c>
       <c r="AE11" t="n">
-        <v>2661481.556137355</v>
+        <v>2834121.265361812</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.046314572576292e-06</v>
+        <v>1.531765172993104e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>31</v>
+        <v>30.048828125</v>
       </c>
       <c r="AH11" t="n">
-        <v>2407473.49183243</v>
+        <v>2563636.709509858</v>
       </c>
     </row>
     <row r="12">
@@ -9054,28 +9054,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>1896.710042081189</v>
+        <v>2031.218137252094</v>
       </c>
       <c r="AB12" t="n">
-        <v>2595.162356516917</v>
+        <v>2779.202266408103</v>
       </c>
       <c r="AC12" t="n">
-        <v>2347.483703544186</v>
+        <v>2513.959102736992</v>
       </c>
       <c r="AD12" t="n">
-        <v>1896710.042081189</v>
+        <v>2031218.137252094</v>
       </c>
       <c r="AE12" t="n">
-        <v>2595162.356516917</v>
+        <v>2779202.266408103</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.05297899660544e-06</v>
+        <v>1.541521639063124e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>30</v>
+        <v>29.85677083333333</v>
       </c>
       <c r="AH12" t="n">
-        <v>2347483.703544185</v>
+        <v>2513959.102736991</v>
       </c>
     </row>
     <row r="13">
@@ -9160,28 +9160,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>1857.3235953084</v>
+        <v>1991.831690479306</v>
       </c>
       <c r="AB13" t="n">
-        <v>2541.27208243499</v>
+        <v>2725.311992326175</v>
       </c>
       <c r="AC13" t="n">
-        <v>2298.736641585163</v>
+        <v>2465.212040777969</v>
       </c>
       <c r="AD13" t="n">
-        <v>1857323.5953084</v>
+        <v>1991831.690479306</v>
       </c>
       <c r="AE13" t="n">
-        <v>2541272.08243499</v>
+        <v>2725311.992326175</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.057615117669196e-06</v>
+        <v>1.548308745894442e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>30</v>
+        <v>29.72981770833333</v>
       </c>
       <c r="AH13" t="n">
-        <v>2298736.641585163</v>
+        <v>2465212.040777969</v>
       </c>
     </row>
     <row r="14">
@@ -9266,28 +9266,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>1841.993232980754</v>
+        <v>1968.254586305799</v>
       </c>
       <c r="AB14" t="n">
-        <v>2520.296404370451</v>
+        <v>2693.052758247557</v>
       </c>
       <c r="AC14" t="n">
-        <v>2279.762852795554</v>
+        <v>2436.031582723695</v>
       </c>
       <c r="AD14" t="n">
-        <v>1841993.232980754</v>
+        <v>1968254.586305799</v>
       </c>
       <c r="AE14" t="n">
-        <v>2520296.404370451</v>
+        <v>2693052.758247558</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.059353663068104e-06</v>
+        <v>1.550853910956187e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>30</v>
+        <v>29.68098958333333</v>
       </c>
       <c r="AH14" t="n">
-        <v>2279762.852795554</v>
+        <v>2436031.582723695</v>
       </c>
     </row>
     <row r="15">
@@ -9372,28 +9372,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>1847.695605286232</v>
+        <v>1973.956958611277</v>
       </c>
       <c r="AB15" t="n">
-        <v>2528.098641729717</v>
+        <v>2700.854995606824</v>
       </c>
       <c r="AC15" t="n">
-        <v>2286.820455571761</v>
+        <v>2443.089185499902</v>
       </c>
       <c r="AD15" t="n">
-        <v>1847695.605286232</v>
+        <v>1973956.958611277</v>
       </c>
       <c r="AE15" t="n">
-        <v>2528098.641729717</v>
+        <v>2700854.995606824</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.059257077212609e-06</v>
+        <v>1.550712512897201e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>30</v>
+        <v>29.68098958333333</v>
       </c>
       <c r="AH15" t="n">
-        <v>2286820.455571761</v>
+        <v>2443089.185499902</v>
       </c>
     </row>
     <row r="16">
@@ -9478,28 +9478,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>1855.808673816347</v>
+        <v>1982.070027141393</v>
       </c>
       <c r="AB16" t="n">
-        <v>2539.199300015944</v>
+        <v>2711.95565389305</v>
       </c>
       <c r="AC16" t="n">
-        <v>2296.861682611022</v>
+        <v>2453.130412539163</v>
       </c>
       <c r="AD16" t="n">
-        <v>1855808.673816347</v>
+        <v>1982070.027141393</v>
       </c>
       <c r="AE16" t="n">
-        <v>2539199.300015944</v>
+        <v>2711955.65389305</v>
       </c>
       <c r="AF16" t="n">
-        <v>1.059257077212609e-06</v>
+        <v>1.550712512897201e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>30</v>
+        <v>29.68098958333333</v>
       </c>
       <c r="AH16" t="n">
-        <v>2296861.682611022</v>
+        <v>2453130.412539163</v>
       </c>
     </row>
   </sheetData>
@@ -9775,28 +9775,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2298.822886229697</v>
+        <v>2453.998068713902</v>
       </c>
       <c r="AB2" t="n">
-        <v>3145.350889847745</v>
+        <v>3357.668420368542</v>
       </c>
       <c r="AC2" t="n">
-        <v>2845.163015448258</v>
+        <v>3037.217258845667</v>
       </c>
       <c r="AD2" t="n">
-        <v>2298822.886229697</v>
+        <v>2453998.068713902</v>
       </c>
       <c r="AE2" t="n">
-        <v>3145350.889847745</v>
+        <v>3357668.420368542</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.954008839057955e-07</v>
+        <v>1.385295689343528e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>40</v>
+        <v>39.18294270833334</v>
       </c>
       <c r="AH2" t="n">
-        <v>2845163.015448258</v>
+        <v>3037217.258845667</v>
       </c>
     </row>
     <row r="3">
@@ -9881,28 +9881,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1654.917540373792</v>
+        <v>1786.876108001298</v>
       </c>
       <c r="AB3" t="n">
-        <v>2264.33118854853</v>
+        <v>2444.882722377619</v>
       </c>
       <c r="AC3" t="n">
-        <v>2048.22659792224</v>
+        <v>2211.546546768351</v>
       </c>
       <c r="AD3" t="n">
-        <v>1654917.540373792</v>
+        <v>1786876.108001298</v>
       </c>
       <c r="AE3" t="n">
-        <v>2264331.18854853</v>
+        <v>2444882.722377619</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.070105365467097e-06</v>
+        <v>1.655585086602297e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>33</v>
+        <v>32.78645833333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>2048226.59792224</v>
+        <v>2211546.546768351</v>
       </c>
     </row>
     <row r="4">
@@ -9987,28 +9987,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1459.28223162347</v>
+        <v>1575.791652145619</v>
       </c>
       <c r="AB4" t="n">
-        <v>1996.65432829565</v>
+        <v>2156.067657486923</v>
       </c>
       <c r="AC4" t="n">
-        <v>1806.096441525063</v>
+        <v>1950.295586316333</v>
       </c>
       <c r="AD4" t="n">
-        <v>1459282.23162347</v>
+        <v>1575791.652145619</v>
       </c>
       <c r="AE4" t="n">
-        <v>1996654.32829565</v>
+        <v>2156067.657486923</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.131321988247368e-06</v>
+        <v>1.750294758189578e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>32</v>
+        <v>31.01236979166667</v>
       </c>
       <c r="AH4" t="n">
-        <v>1806096.441525063</v>
+        <v>1950295.586316333</v>
       </c>
     </row>
     <row r="5">
@@ -10093,28 +10093,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1373.291113794683</v>
+        <v>1497.311800487357</v>
       </c>
       <c r="AB5" t="n">
-        <v>1878.997487221928</v>
+        <v>2048.688062161389</v>
       </c>
       <c r="AC5" t="n">
-        <v>1699.668604231004</v>
+        <v>1853.164148860459</v>
       </c>
       <c r="AD5" t="n">
-        <v>1373291.113794683</v>
+        <v>1497311.800487357</v>
       </c>
       <c r="AE5" t="n">
-        <v>1878997.487221928</v>
+        <v>2048688.062161389</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.153092688602324e-06</v>
+        <v>1.783976718859702e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>31</v>
+        <v>30.42317708333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>1699668.604231004</v>
+        <v>1853164.148860459</v>
       </c>
     </row>
     <row r="6">
@@ -10199,28 +10199,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1378.666012281589</v>
+        <v>1502.686698974263</v>
       </c>
       <c r="AB6" t="n">
-        <v>1886.351660455499</v>
+        <v>2056.042235394959</v>
       </c>
       <c r="AC6" t="n">
-        <v>1706.320905492809</v>
+        <v>1859.816450122265</v>
       </c>
       <c r="AD6" t="n">
-        <v>1378666.012281589</v>
+        <v>1502686.698974263</v>
       </c>
       <c r="AE6" t="n">
-        <v>1886351.660455499</v>
+        <v>2056042.235394959</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.154170446045638e-06</v>
+        <v>1.785644142655253e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>31</v>
+        <v>30.39713541666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>1706320.905492809</v>
+        <v>1859816.450122265</v>
       </c>
     </row>
   </sheetData>
@@ -10496,28 +10496,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>3228.69512429768</v>
+        <v>3413.018149358663</v>
       </c>
       <c r="AB2" t="n">
-        <v>4417.643109040314</v>
+        <v>4669.842003686719</v>
       </c>
       <c r="AC2" t="n">
-        <v>3996.029450914384</v>
+        <v>4224.158837019099</v>
       </c>
       <c r="AD2" t="n">
-        <v>3228695.12429768</v>
+        <v>3413018.149358663</v>
       </c>
       <c r="AE2" t="n">
-        <v>4417643.109040314</v>
+        <v>4669842.00368672</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.6298169619558e-07</v>
+        <v>1.153089635490065e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>44</v>
+        <v>43.99088541666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>3996029.450914384</v>
+        <v>4224158.837019099</v>
       </c>
     </row>
     <row r="3">
@@ -10602,28 +10602,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2146.044780293758</v>
+        <v>2290.345818650592</v>
       </c>
       <c r="AB3" t="n">
-        <v>2936.313145211672</v>
+        <v>3133.752192004187</v>
       </c>
       <c r="AC3" t="n">
-        <v>2656.075539774052</v>
+        <v>2834.671281048013</v>
       </c>
       <c r="AD3" t="n">
-        <v>2146044.780293758</v>
+        <v>2290345.818650592</v>
       </c>
       <c r="AE3" t="n">
-        <v>2936313.145211672</v>
+        <v>3133752.192004187</v>
       </c>
       <c r="AF3" t="n">
-        <v>9.683681203606606e-07</v>
+        <v>1.463488899530094e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>35</v>
+        <v>34.658203125</v>
       </c>
       <c r="AH3" t="n">
-        <v>2656075.539774052</v>
+        <v>2834671.281048013</v>
       </c>
     </row>
     <row r="4">
@@ -10708,28 +10708,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1878.207823379001</v>
+        <v>2006.466020220894</v>
       </c>
       <c r="AB4" t="n">
-        <v>2569.846804628303</v>
+        <v>2745.335327899679</v>
       </c>
       <c r="AC4" t="n">
-        <v>2324.584232397221</v>
+        <v>2483.324377307265</v>
       </c>
       <c r="AD4" t="n">
-        <v>1878207.823379001</v>
+        <v>2006466.020220894</v>
       </c>
       <c r="AE4" t="n">
-        <v>2569846.804628303</v>
+        <v>2745335.327899679</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.040542064595378e-06</v>
+        <v>1.572564946130505e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>33</v>
+        <v>32.25260416666666</v>
       </c>
       <c r="AH4" t="n">
-        <v>2324584.232397221</v>
+        <v>2483324.377307266</v>
       </c>
     </row>
     <row r="5">
@@ -10814,28 +10814,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1733.843715200849</v>
+        <v>1862.01657118817</v>
       </c>
       <c r="AB5" t="n">
-        <v>2372.321462923996</v>
+        <v>2547.693219073175</v>
       </c>
       <c r="AC5" t="n">
-        <v>2145.910432076615</v>
+        <v>2304.544953954721</v>
       </c>
       <c r="AD5" t="n">
-        <v>1733843.715200849</v>
+        <v>1862016.57118817</v>
       </c>
       <c r="AE5" t="n">
-        <v>2372321.462923997</v>
+        <v>2547693.219073175</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.078691149405157e-06</v>
+        <v>1.630219427905008e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>32</v>
+        <v>31.11328125</v>
       </c>
       <c r="AH5" t="n">
-        <v>2145910.432076615</v>
+        <v>2304544.953954721</v>
       </c>
     </row>
     <row r="6">
@@ -10920,28 +10920,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1630.659411137719</v>
+        <v>1758.746926270468</v>
       </c>
       <c r="AB6" t="n">
-        <v>2231.140145934603</v>
+        <v>2406.395134961584</v>
       </c>
       <c r="AC6" t="n">
-        <v>2018.203261831466</v>
+        <v>2176.732160677633</v>
       </c>
       <c r="AD6" t="n">
-        <v>1630659.411137719</v>
+        <v>1758746.926270468</v>
       </c>
       <c r="AE6" t="n">
-        <v>2231140.145934603</v>
+        <v>2406395.134961584</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.101683705925645e-06</v>
+        <v>1.664967939893425e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>31</v>
+        <v>30.46549479166667</v>
       </c>
       <c r="AH6" t="n">
-        <v>2018203.261831466</v>
+        <v>2176732.160677633</v>
       </c>
     </row>
     <row r="7">
@@ -11026,28 +11026,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1558.077356009108</v>
+        <v>1678.314087339256</v>
       </c>
       <c r="AB7" t="n">
-        <v>2131.830176013358</v>
+        <v>2296.343376289482</v>
       </c>
       <c r="AC7" t="n">
-        <v>1928.371296057086</v>
+        <v>2077.183587394584</v>
       </c>
       <c r="AD7" t="n">
-        <v>1558077.356009108</v>
+        <v>1678314.087339256</v>
       </c>
       <c r="AE7" t="n">
-        <v>2131830.176013358</v>
+        <v>2296343.376289482</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.116530917311072e-06</v>
+        <v>1.687406440908367e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>31</v>
+        <v>30.05859375</v>
       </c>
       <c r="AH7" t="n">
-        <v>1928371.296057086</v>
+        <v>2077183.587394584</v>
       </c>
     </row>
     <row r="8">
@@ -11132,28 +11132,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1535.855898964789</v>
+        <v>1664.028665443559</v>
       </c>
       <c r="AB8" t="n">
-        <v>2101.425798143824</v>
+        <v>2276.797431823454</v>
       </c>
       <c r="AC8" t="n">
-        <v>1900.868669338609</v>
+        <v>2059.503080435488</v>
       </c>
       <c r="AD8" t="n">
-        <v>1535855.898964789</v>
+        <v>1664028.665443559</v>
       </c>
       <c r="AE8" t="n">
-        <v>2101425.798143824</v>
+        <v>2276797.431823454</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.119727191984324e-06</v>
+        <v>1.692236951543528e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>30</v>
+        <v>29.97395833333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>1900868.669338609</v>
+        <v>2059503.080435488</v>
       </c>
     </row>
     <row r="9">
@@ -11238,28 +11238,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1547.217167892047</v>
+        <v>1675.389934370816</v>
       </c>
       <c r="AB9" t="n">
-        <v>2116.970787513909</v>
+        <v>2292.342421193539</v>
       </c>
       <c r="AC9" t="n">
-        <v>1914.930066740742</v>
+        <v>2073.564477837622</v>
       </c>
       <c r="AD9" t="n">
-        <v>1547217.167892047</v>
+        <v>1675389.934370816</v>
       </c>
       <c r="AE9" t="n">
-        <v>2116970.787513909</v>
+        <v>2292342.421193539</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.11931476944584e-06</v>
+        <v>1.691613659848668e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>30</v>
+        <v>29.98697916666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>1914930.066740742</v>
+        <v>2073564.477837622</v>
       </c>
     </row>
   </sheetData>
@@ -11535,28 +11535,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1720.336621029264</v>
+        <v>1856.309979151784</v>
       </c>
       <c r="AB2" t="n">
-        <v>2353.840460787495</v>
+        <v>2539.885208091919</v>
       </c>
       <c r="AC2" t="n">
-        <v>2129.193230845772</v>
+        <v>2297.482128582904</v>
       </c>
       <c r="AD2" t="n">
-        <v>1720336.621029264</v>
+        <v>1856309.979151784</v>
       </c>
       <c r="AE2" t="n">
-        <v>2353840.460787495</v>
+        <v>2539885.208091919</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.009646294636209e-06</v>
+        <v>1.595733843166365e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>37</v>
+        <v>36.09049479166666</v>
       </c>
       <c r="AH2" t="n">
-        <v>2129193.230845772</v>
+        <v>2297482.128582904</v>
       </c>
     </row>
     <row r="3">
@@ -11641,28 +11641,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1294.545027180852</v>
+        <v>1415.315421174518</v>
       </c>
       <c r="AB3" t="n">
-        <v>1771.253617484727</v>
+        <v>1936.496998560612</v>
       </c>
       <c r="AC3" t="n">
-        <v>1602.20765820205</v>
+        <v>1751.680442908594</v>
       </c>
       <c r="AD3" t="n">
-        <v>1294545.027180851</v>
+        <v>1415315.421174518</v>
       </c>
       <c r="AE3" t="n">
-        <v>1771253.617484727</v>
+        <v>1936496.998560612</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.15784714764046e-06</v>
+        <v>1.829963511498102e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>32</v>
+        <v>31.46809895833333</v>
       </c>
       <c r="AH3" t="n">
-        <v>1602207.65820205</v>
+        <v>1751680.442908594</v>
       </c>
     </row>
     <row r="4">
@@ -11747,28 +11747,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1241.302710190985</v>
+        <v>1362.158355530672</v>
       </c>
       <c r="AB4" t="n">
-        <v>1698.405130493943</v>
+        <v>1863.765156222477</v>
       </c>
       <c r="AC4" t="n">
-        <v>1536.311728566172</v>
+        <v>1685.890025523429</v>
       </c>
       <c r="AD4" t="n">
-        <v>1241302.710190985</v>
+        <v>1362158.355530672</v>
       </c>
       <c r="AE4" t="n">
-        <v>1698405.130493943</v>
+        <v>1863765.156222477</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.175756616281457e-06</v>
+        <v>1.858269211598614e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>31</v>
+        <v>30.98958333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>1536311.728566172</v>
+        <v>1685890.025523429</v>
       </c>
     </row>
     <row r="5">
@@ -11853,28 +11853,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1250.392474261032</v>
+        <v>1371.248119600719</v>
       </c>
       <c r="AB5" t="n">
-        <v>1710.84214670667</v>
+        <v>1876.202172435205</v>
       </c>
       <c r="AC5" t="n">
-        <v>1547.561773407019</v>
+        <v>1697.140070364275</v>
       </c>
       <c r="AD5" t="n">
-        <v>1250392.474261032</v>
+        <v>1371248.119600719</v>
       </c>
       <c r="AE5" t="n">
-        <v>1710842.14670667</v>
+        <v>1876202.172435204</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.176652089713506e-06</v>
+        <v>1.85968449660364e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>31</v>
+        <v>30.966796875</v>
       </c>
       <c r="AH5" t="n">
-        <v>1547561.773407019</v>
+        <v>1697140.070364275</v>
       </c>
     </row>
   </sheetData>
@@ -12150,28 +12150,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>6332.050892342178</v>
+        <v>6586.020438860224</v>
       </c>
       <c r="AB2" t="n">
-        <v>8663.791381272875</v>
+        <v>9011.283719164516</v>
       </c>
       <c r="AC2" t="n">
-        <v>7836.931291551438</v>
+        <v>8151.259448423246</v>
       </c>
       <c r="AD2" t="n">
-        <v>6332050.892342178</v>
+        <v>6586020.438860225</v>
       </c>
       <c r="AE2" t="n">
-        <v>8663791.381272875</v>
+        <v>9011283.719164515</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.350649151190803e-07</v>
+        <v>7.800638034280877e-07</v>
       </c>
       <c r="AG2" t="n">
-        <v>59</v>
+        <v>58.22916666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>7836931.291551438</v>
+        <v>8151259.448423246</v>
       </c>
     </row>
     <row r="3">
@@ -12256,28 +12256,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>3340.958811497193</v>
+        <v>3510.271872345408</v>
       </c>
       <c r="AB3" t="n">
-        <v>4571.247238591029</v>
+        <v>4802.908838008639</v>
       </c>
       <c r="AC3" t="n">
-        <v>4134.973817925523</v>
+        <v>4344.525959433803</v>
       </c>
       <c r="AD3" t="n">
-        <v>3340958.811497192</v>
+        <v>3510271.872345407</v>
       </c>
       <c r="AE3" t="n">
-        <v>4571247.238591028</v>
+        <v>4802908.838008638</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.89579693169462e-07</v>
+        <v>1.151117408672325e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>40</v>
+        <v>39.45963541666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>4134973.817925523</v>
+        <v>4344525.959433803</v>
       </c>
     </row>
     <row r="4">
@@ -12362,28 +12362,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>2777.592382603419</v>
+        <v>2929.957078146752</v>
       </c>
       <c r="AB4" t="n">
-        <v>3800.424436605786</v>
+        <v>4008.89653490415</v>
       </c>
       <c r="AC4" t="n">
-        <v>3437.717262305183</v>
+        <v>3626.293076134371</v>
       </c>
       <c r="AD4" t="n">
-        <v>2777592.382603419</v>
+        <v>2929957.078146752</v>
       </c>
       <c r="AE4" t="n">
-        <v>3800424.436605786</v>
+        <v>4008896.53490415</v>
       </c>
       <c r="AF4" t="n">
-        <v>8.850107701593947e-07</v>
+        <v>1.290245067351717e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>36</v>
+        <v>35.20833333333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>3437717.262305183</v>
+        <v>3626293.076134371</v>
       </c>
     </row>
     <row r="5">
@@ -12468,28 +12468,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>2527.795436756276</v>
+        <v>2671.68594964717</v>
       </c>
       <c r="AB5" t="n">
-        <v>3458.641235034226</v>
+        <v>3655.518582772967</v>
       </c>
       <c r="AC5" t="n">
-        <v>3128.553369795889</v>
+        <v>3306.641019785531</v>
       </c>
       <c r="AD5" t="n">
-        <v>2527795.436756276</v>
+        <v>2671685.94964717</v>
       </c>
       <c r="AE5" t="n">
-        <v>3458641.235034226</v>
+        <v>3655518.582772967</v>
       </c>
       <c r="AF5" t="n">
-        <v>9.35645714720753e-07</v>
+        <v>1.364065058767363e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>34</v>
+        <v>33.30403645833334</v>
       </c>
       <c r="AH5" t="n">
-        <v>3128553.36979589</v>
+        <v>3306641.019785531</v>
       </c>
     </row>
     <row r="6">
@@ -12574,28 +12574,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>2384.756338074341</v>
+        <v>2520.258009167366</v>
       </c>
       <c r="AB6" t="n">
-        <v>3262.928829777926</v>
+        <v>3448.328194079243</v>
       </c>
       <c r="AC6" t="n">
-        <v>2951.519481813173</v>
+        <v>3119.224590995207</v>
       </c>
       <c r="AD6" t="n">
-        <v>2384756.338074341</v>
+        <v>2520258.009167366</v>
       </c>
       <c r="AE6" t="n">
-        <v>3262928.829777926</v>
+        <v>3448328.194079243</v>
       </c>
       <c r="AF6" t="n">
-        <v>9.665627035550041e-07</v>
+        <v>1.409138512883154e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>33</v>
+        <v>32.236328125</v>
       </c>
       <c r="AH6" t="n">
-        <v>2951519.481813173</v>
+        <v>3119224.590995206</v>
       </c>
     </row>
     <row r="7">
@@ -12680,28 +12680,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>2282.176562322177</v>
+        <v>2417.763484761223</v>
       </c>
       <c r="AB7" t="n">
-        <v>3122.574655093495</v>
+        <v>3308.09066404746</v>
       </c>
       <c r="AC7" t="n">
-        <v>2824.560512572308</v>
+        <v>2992.371134005053</v>
       </c>
       <c r="AD7" t="n">
-        <v>2282176.562322177</v>
+        <v>2417763.484761223</v>
       </c>
       <c r="AE7" t="n">
-        <v>3122574.655093495</v>
+        <v>3308090.66404746</v>
       </c>
       <c r="AF7" t="n">
-        <v>9.878121509890714e-07</v>
+        <v>1.440117790944162e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>32</v>
+        <v>31.54296875</v>
       </c>
       <c r="AH7" t="n">
-        <v>2824560.512572308</v>
+        <v>2992371.134005053</v>
       </c>
     </row>
     <row r="8">
@@ -12786,28 +12786,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>2211.168591387232</v>
+        <v>2346.584921625685</v>
       </c>
       <c r="AB8" t="n">
-        <v>3025.418416609711</v>
+        <v>3210.70101378883</v>
       </c>
       <c r="AC8" t="n">
-        <v>2736.676729129782</v>
+        <v>2904.276215279877</v>
       </c>
       <c r="AD8" t="n">
-        <v>2211168.591387232</v>
+        <v>2346584.921625685</v>
       </c>
       <c r="AE8" t="n">
-        <v>3025418.416609711</v>
+        <v>3210701.01378883</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.003605659217094e-06</v>
+        <v>1.46314293004356e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>32</v>
+        <v>31.044921875</v>
       </c>
       <c r="AH8" t="n">
-        <v>2736676.729129782</v>
+        <v>2904276.215279877</v>
       </c>
     </row>
     <row r="9">
@@ -12892,28 +12892,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>2146.048405756229</v>
+        <v>2281.549987340706</v>
       </c>
       <c r="AB9" t="n">
-        <v>2936.31810572937</v>
+        <v>3121.717347561309</v>
       </c>
       <c r="AC9" t="n">
-        <v>2656.080026866903</v>
+        <v>2823.785025267754</v>
       </c>
       <c r="AD9" t="n">
-        <v>2146048.40575623</v>
+        <v>2281549.987340706</v>
       </c>
       <c r="AE9" t="n">
-        <v>2936318.10572937</v>
+        <v>3121717.347561309</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.014708974092553e-06</v>
+        <v>1.479330300561925e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>31</v>
+        <v>30.70638020833333</v>
       </c>
       <c r="AH9" t="n">
-        <v>2656080.026866903</v>
+        <v>2823785.025267755</v>
       </c>
     </row>
     <row r="10">
@@ -12998,28 +12998,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>2093.114021709731</v>
+        <v>2228.445011093615</v>
       </c>
       <c r="AB10" t="n">
-        <v>2863.890946176743</v>
+        <v>3049.056776233832</v>
       </c>
       <c r="AC10" t="n">
-        <v>2590.565213769823</v>
+        <v>2758.059076888022</v>
       </c>
       <c r="AD10" t="n">
-        <v>2093114.021709731</v>
+        <v>2228445.011093615</v>
       </c>
       <c r="AE10" t="n">
-        <v>2863890.946176744</v>
+        <v>3049056.776233832</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.024376515492737e-06</v>
+        <v>1.493424476616708e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>31</v>
+        <v>30.41666666666667</v>
       </c>
       <c r="AH10" t="n">
-        <v>2590565.213769822</v>
+        <v>2758059.076888022</v>
       </c>
     </row>
     <row r="11">
@@ -13104,28 +13104,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>2048.772339306078</v>
+        <v>2175.799827746662</v>
       </c>
       <c r="AB11" t="n">
-        <v>2803.2207000951</v>
+        <v>2977.025313836783</v>
       </c>
       <c r="AC11" t="n">
-        <v>2535.685250822985</v>
+        <v>2692.90219616547</v>
       </c>
       <c r="AD11" t="n">
-        <v>2048772.339306078</v>
+        <v>2175799.827746662</v>
       </c>
       <c r="AE11" t="n">
-        <v>2803220.7000951</v>
+        <v>2977025.313836783</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.03251256518596e-06</v>
+        <v>1.505285911910337e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>31</v>
+        <v>30.17903645833333</v>
       </c>
       <c r="AH11" t="n">
-        <v>2535685.250822986</v>
+        <v>2692902.19616547</v>
       </c>
     </row>
     <row r="12">
@@ -13210,28 +13210,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>2005.293241893992</v>
+        <v>2132.320730334576</v>
       </c>
       <c r="AB12" t="n">
-        <v>2743.730680853484</v>
+        <v>2917.535294595166</v>
       </c>
       <c r="AC12" t="n">
-        <v>2481.872875523023</v>
+        <v>2639.089820865507</v>
       </c>
       <c r="AD12" t="n">
-        <v>2005293.241893992</v>
+        <v>2132320.730334576</v>
       </c>
       <c r="AE12" t="n">
-        <v>2743730.680853484</v>
+        <v>2917535.294595166</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.038159940855375e-06</v>
+        <v>1.513519143467091e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>31</v>
+        <v>30.01302083333333</v>
       </c>
       <c r="AH12" t="n">
-        <v>2481872.875523023</v>
+        <v>2639089.820865507</v>
       </c>
     </row>
     <row r="13">
@@ -13316,28 +13316,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>1953.814751520528</v>
+        <v>2089.23099225043</v>
       </c>
       <c r="AB13" t="n">
-        <v>2673.295539253798</v>
+        <v>2858.578013963358</v>
       </c>
       <c r="AC13" t="n">
-        <v>2418.15996498127</v>
+        <v>2585.759340350135</v>
       </c>
       <c r="AD13" t="n">
-        <v>1953814.751520528</v>
+        <v>2089230.99225043</v>
       </c>
       <c r="AE13" t="n">
-        <v>2673295.539253798</v>
+        <v>2858578.013963358</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.043328725366364e-06</v>
+        <v>1.521054643535985e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>30</v>
+        <v>29.86328125</v>
       </c>
       <c r="AH13" t="n">
-        <v>2418159.96498127</v>
+        <v>2585759.340350135</v>
       </c>
     </row>
     <row r="14">
@@ -13422,28 +13422,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>1914.201982985888</v>
+        <v>2049.61822371579</v>
       </c>
       <c r="AB14" t="n">
-        <v>2619.095601752696</v>
+        <v>2804.378076462255</v>
       </c>
       <c r="AC14" t="n">
-        <v>2369.132793445182</v>
+        <v>2536.732168814047</v>
       </c>
       <c r="AD14" t="n">
-        <v>1914201.982985888</v>
+        <v>2049618.223715791</v>
       </c>
       <c r="AE14" t="n">
-        <v>2619095.601752697</v>
+        <v>2804378.076462255</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.048497509877353e-06</v>
+        <v>1.528590143604879e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>30</v>
+        <v>29.716796875</v>
       </c>
       <c r="AH14" t="n">
-        <v>2369132.793445182</v>
+        <v>2536732.168814047</v>
       </c>
     </row>
     <row r="15">
@@ -13528,28 +13528,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>1896.388364590578</v>
+        <v>2023.501104377183</v>
       </c>
       <c r="AB15" t="n">
-        <v>2594.722223182854</v>
+        <v>2768.643481577186</v>
       </c>
       <c r="AC15" t="n">
-        <v>2347.085575917794</v>
+        <v>2504.408033510991</v>
       </c>
       <c r="AD15" t="n">
-        <v>1896388.364590578</v>
+        <v>2023501.104377183</v>
       </c>
       <c r="AE15" t="n">
-        <v>2594722.223182854</v>
+        <v>2768643.481577186</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.050124719815998e-06</v>
+        <v>1.530962430663604e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>30</v>
+        <v>29.67122395833333</v>
       </c>
       <c r="AH15" t="n">
-        <v>2347085.575917794</v>
+        <v>2504408.03351099</v>
       </c>
     </row>
     <row r="16">
@@ -13634,28 +13634,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>1897.136050411866</v>
+        <v>2024.248790198471</v>
       </c>
       <c r="AB16" t="n">
-        <v>2595.745239909111</v>
+        <v>2769.666498303443</v>
       </c>
       <c r="AC16" t="n">
-        <v>2348.01095736351</v>
+        <v>2505.333414956707</v>
       </c>
       <c r="AD16" t="n">
-        <v>1897136.050411866</v>
+        <v>2024248.790198471</v>
       </c>
       <c r="AE16" t="n">
-        <v>2595745.239909111</v>
+        <v>2769666.498303443</v>
       </c>
       <c r="AF16" t="n">
-        <v>1.050699029206108e-06</v>
+        <v>1.531799708449037e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>30</v>
+        <v>29.65494791666667</v>
       </c>
       <c r="AH16" t="n">
-        <v>2348010.95736351</v>
+        <v>2505333.414956707</v>
       </c>
     </row>
     <row r="17">
@@ -13740,28 +13740,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>1903.740877518621</v>
+        <v>2030.853617305226</v>
       </c>
       <c r="AB17" t="n">
-        <v>2604.78225574098</v>
+        <v>2778.703514135311</v>
       </c>
       <c r="AC17" t="n">
-        <v>2356.185493087917</v>
+        <v>2513.507950681113</v>
       </c>
       <c r="AD17" t="n">
-        <v>1903740.877518621</v>
+        <v>2030853.617305226</v>
       </c>
       <c r="AE17" t="n">
-        <v>2604782.25574098</v>
+        <v>2778703.514135311</v>
       </c>
       <c r="AF17" t="n">
-        <v>1.050794747437793e-06</v>
+        <v>1.53193925474661e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>30</v>
+        <v>29.65169270833333</v>
       </c>
       <c r="AH17" t="n">
-        <v>2356185.493087917</v>
+        <v>2513507.950681113</v>
       </c>
     </row>
     <row r="18">
@@ -13846,28 +13846,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>1912.019316949137</v>
+        <v>2039.132056735742</v>
       </c>
       <c r="AB18" t="n">
-        <v>2616.109181788784</v>
+        <v>2790.030440183116</v>
       </c>
       <c r="AC18" t="n">
-        <v>2366.43139321116</v>
+        <v>2523.753850804355</v>
       </c>
       <c r="AD18" t="n">
-        <v>1912019.316949137</v>
+        <v>2039132.056735742</v>
       </c>
       <c r="AE18" t="n">
-        <v>2616109.181788784</v>
+        <v>2790030.440183116</v>
       </c>
       <c r="AF18" t="n">
-        <v>1.050794747437793e-06</v>
+        <v>1.53193925474661e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>30</v>
+        <v>29.65169270833333</v>
       </c>
       <c r="AH18" t="n">
-        <v>2366431.393211159</v>
+        <v>2523753.850804355</v>
       </c>
     </row>
   </sheetData>
@@ -14143,28 +14143,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1421.551015343175</v>
+        <v>1555.1315979468</v>
       </c>
       <c r="AB2" t="n">
-        <v>1945.028813597169</v>
+        <v>2127.799659874834</v>
       </c>
       <c r="AC2" t="n">
-        <v>1759.397993492539</v>
+        <v>1924.725446721958</v>
       </c>
       <c r="AD2" t="n">
-        <v>1421551.015343175</v>
+        <v>1555131.5979468</v>
       </c>
       <c r="AE2" t="n">
-        <v>1945028.813597169</v>
+        <v>2127799.659874834</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.081823444425908e-06</v>
+        <v>1.733335275785377e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>35</v>
+        <v>34.46940104166666</v>
       </c>
       <c r="AH2" t="n">
-        <v>1759397.99349254</v>
+        <v>1924725.446721958</v>
       </c>
     </row>
     <row r="3">
@@ -14249,28 +14249,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1167.618282185896</v>
+        <v>1286.584073882597</v>
       </c>
       <c r="AB3" t="n">
-        <v>1597.586845369841</v>
+        <v>1760.361089969583</v>
       </c>
       <c r="AC3" t="n">
-        <v>1445.115399074963</v>
+        <v>1592.354698225193</v>
       </c>
       <c r="AD3" t="n">
-        <v>1167618.282185896</v>
+        <v>1286584.073882597</v>
       </c>
       <c r="AE3" t="n">
-        <v>1597586.845369841</v>
+        <v>1760361.089969583</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.183201435564931e-06</v>
+        <v>1.895766631044806e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>32</v>
+        <v>31.51692708333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>1445115.399074963</v>
+        <v>1592354.698225193</v>
       </c>
     </row>
     <row r="4">
@@ -14355,28 +14355,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1177.903682086147</v>
+        <v>1296.869473782848</v>
       </c>
       <c r="AB4" t="n">
-        <v>1611.659783273183</v>
+        <v>1774.434027872925</v>
       </c>
       <c r="AC4" t="n">
-        <v>1457.845235536302</v>
+        <v>1605.084534686532</v>
       </c>
       <c r="AD4" t="n">
-        <v>1177903.682086147</v>
+        <v>1296869.473782848</v>
       </c>
       <c r="AE4" t="n">
-        <v>1611659.783273183</v>
+        <v>1774434.027872925</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.183659641174599e-06</v>
+        <v>1.896500784062928e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>32</v>
+        <v>31.50390625</v>
       </c>
       <c r="AH4" t="n">
-        <v>1457845.235536302</v>
+        <v>1605084.534686532</v>
       </c>
     </row>
   </sheetData>
@@ -14652,28 +14652,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>4360.09148344417</v>
+        <v>4565.751211792901</v>
       </c>
       <c r="AB2" t="n">
-        <v>5965.669521309265</v>
+        <v>6247.062234702883</v>
       </c>
       <c r="AC2" t="n">
-        <v>5396.314395065043</v>
+        <v>5650.851382829518</v>
       </c>
       <c r="AD2" t="n">
-        <v>4360091.48344417</v>
+        <v>4565751.211792901</v>
       </c>
       <c r="AE2" t="n">
-        <v>5965669.521309265</v>
+        <v>6247062.234702883</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.547979116739401e-07</v>
+        <v>9.72272224643635e-07</v>
       </c>
       <c r="AG2" t="n">
-        <v>50</v>
+        <v>49.47265625</v>
       </c>
       <c r="AH2" t="n">
-        <v>5396314.395065043</v>
+        <v>5650851.382829518</v>
       </c>
     </row>
     <row r="3">
@@ -14758,28 +14758,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2639.59548860914</v>
+        <v>2795.941191372053</v>
       </c>
       <c r="AB3" t="n">
-        <v>3611.610998249509</v>
+        <v>3825.530086255345</v>
       </c>
       <c r="AC3" t="n">
-        <v>3266.923913504311</v>
+        <v>3460.426863988188</v>
       </c>
       <c r="AD3" t="n">
-        <v>2639595.48860914</v>
+        <v>2795941.191372053</v>
       </c>
       <c r="AE3" t="n">
-        <v>3611610.998249508</v>
+        <v>3825530.086255345</v>
       </c>
       <c r="AF3" t="n">
-        <v>8.842757208411293e-07</v>
+        <v>1.313010788477711e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>37</v>
+        <v>36.63411458333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>3266923.913504311</v>
+        <v>3460426.863988188</v>
       </c>
     </row>
     <row r="4">
@@ -14864,28 +14864,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>2259.656096722353</v>
+        <v>2399.4501224953</v>
       </c>
       <c r="AB4" t="n">
-        <v>3091.761160526991</v>
+        <v>3283.0335138667</v>
       </c>
       <c r="AC4" t="n">
-        <v>2796.687814680221</v>
+        <v>2969.705403069615</v>
       </c>
       <c r="AD4" t="n">
-        <v>2259656.096722353</v>
+        <v>2399450.1224953</v>
       </c>
       <c r="AE4" t="n">
-        <v>3091761.160526991</v>
+        <v>3283033.5138667</v>
       </c>
       <c r="AF4" t="n">
-        <v>9.679664569684519e-07</v>
+        <v>1.437278408679124e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>34</v>
+        <v>33.466796875</v>
       </c>
       <c r="AH4" t="n">
-        <v>2796687.814680221</v>
+        <v>2969705.403069615</v>
       </c>
     </row>
     <row r="5">
@@ -14970,28 +14970,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>2084.884141376372</v>
+        <v>2216.53029518192</v>
       </c>
       <c r="AB5" t="n">
-        <v>2852.630460827945</v>
+        <v>3032.754536283281</v>
       </c>
       <c r="AC5" t="n">
-        <v>2580.379413338523</v>
+        <v>2743.312699838015</v>
       </c>
       <c r="AD5" t="n">
-        <v>2084884.141376371</v>
+        <v>2216530.29518192</v>
       </c>
       <c r="AE5" t="n">
-        <v>2852630.460827945</v>
+        <v>3032754.536283281</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.010956228677136e-06</v>
+        <v>1.501111478746913e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>33</v>
+        <v>32.04427083333334</v>
       </c>
       <c r="AH5" t="n">
-        <v>2580379.413338523</v>
+        <v>2743312.699838015</v>
       </c>
     </row>
     <row r="6">
@@ -15076,28 +15076,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1969.897890291625</v>
+        <v>2101.458703242599</v>
       </c>
       <c r="AB6" t="n">
-        <v>2695.30119925842</v>
+        <v>2875.30850759138</v>
       </c>
       <c r="AC6" t="n">
-        <v>2438.065435680187</v>
+        <v>2600.893099147694</v>
       </c>
       <c r="AD6" t="n">
-        <v>1969897.890291625</v>
+        <v>2101458.703242599</v>
       </c>
       <c r="AE6" t="n">
-        <v>2695301.19925842</v>
+        <v>2875308.50759138</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.03762580927419e-06</v>
+        <v>1.540711624066745e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>32</v>
+        <v>31.220703125</v>
       </c>
       <c r="AH6" t="n">
-        <v>2438065.435680187</v>
+        <v>2600893.099147694</v>
       </c>
     </row>
     <row r="7">
@@ -15182,28 +15182,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1882.480269343733</v>
+        <v>2014.126333640728</v>
       </c>
       <c r="AB7" t="n">
-        <v>2575.692553684262</v>
+        <v>2755.816506669873</v>
       </c>
       <c r="AC7" t="n">
-        <v>2329.872071367839</v>
+        <v>2492.805247086059</v>
       </c>
       <c r="AD7" t="n">
-        <v>1882480.269343733</v>
+        <v>2014126.333640728</v>
       </c>
       <c r="AE7" t="n">
-        <v>2575692.553684262</v>
+        <v>2755816.506669872</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.055637727513245e-06</v>
+        <v>1.567456498331258e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>31</v>
+        <v>30.68684895833333</v>
       </c>
       <c r="AH7" t="n">
-        <v>2329872.071367839</v>
+        <v>2492805.247086059</v>
       </c>
     </row>
     <row r="8">
@@ -15288,28 +15288,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1811.88876922944</v>
+        <v>1935.301710213013</v>
       </c>
       <c r="AB8" t="n">
-        <v>2479.106148950697</v>
+        <v>2647.965179399117</v>
       </c>
       <c r="AC8" t="n">
-        <v>2242.503737542175</v>
+        <v>2395.247099119737</v>
       </c>
       <c r="AD8" t="n">
-        <v>1811888.76922944</v>
+        <v>1935301.710213013</v>
       </c>
       <c r="AE8" t="n">
-        <v>2479106.148950697</v>
+        <v>2647965.179399117</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.069470084613956e-06</v>
+        <v>1.587995379672514e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>31</v>
+        <v>30.28971354166667</v>
       </c>
       <c r="AH8" t="n">
-        <v>2242503.737542175</v>
+        <v>2395247.099119736</v>
       </c>
     </row>
     <row r="9">
@@ -15394,28 +15394,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1758.328220709406</v>
+        <v>1881.741161692979</v>
       </c>
       <c r="AB9" t="n">
-        <v>2405.822243540952</v>
+        <v>2574.681273989373</v>
       </c>
       <c r="AC9" t="n">
-        <v>2176.213945210129</v>
+        <v>2328.95730678769</v>
       </c>
       <c r="AD9" t="n">
-        <v>1758328.220709406</v>
+        <v>1881741.161692979</v>
       </c>
       <c r="AE9" t="n">
-        <v>2405822.243540952</v>
+        <v>2574681.273989372</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.079321907297196e-06</v>
+        <v>1.602623791563049e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>31</v>
+        <v>30.01302083333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>2176213.945210129</v>
+        <v>2328957.30678769</v>
       </c>
     </row>
     <row r="10">
@@ -15500,28 +15500,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1703.355496400032</v>
+        <v>1834.916219842455</v>
       </c>
       <c r="AB10" t="n">
-        <v>2330.606136915434</v>
+        <v>2510.613322778846</v>
       </c>
       <c r="AC10" t="n">
-        <v>2108.176358234481</v>
+        <v>2271.003910920761</v>
       </c>
       <c r="AD10" t="n">
-        <v>1703355.496400032</v>
+        <v>1834916.219842455</v>
       </c>
       <c r="AE10" t="n">
-        <v>2330606.136915434</v>
+        <v>2510613.322778846</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.085790275725587e-06</v>
+        <v>1.612228304420471e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>30</v>
+        <v>29.833984375</v>
       </c>
       <c r="AH10" t="n">
-        <v>2108176.358234481</v>
+        <v>2271003.910920762</v>
       </c>
     </row>
     <row r="11">
@@ -15606,28 +15606,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1693.587979015041</v>
+        <v>1825.148702457464</v>
       </c>
       <c r="AB11" t="n">
-        <v>2317.241788716834</v>
+        <v>2497.248974580247</v>
       </c>
       <c r="AC11" t="n">
-        <v>2096.087484670976</v>
+        <v>2258.915037357256</v>
       </c>
       <c r="AD11" t="n">
-        <v>1693587.979015041</v>
+        <v>1825148.702457464</v>
       </c>
       <c r="AE11" t="n">
-        <v>2317241.788716835</v>
+        <v>2497248.974580247</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.087382489492575e-06</v>
+        <v>1.61459249220076e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>30</v>
+        <v>29.79166666666667</v>
       </c>
       <c r="AH11" t="n">
-        <v>2096087.484670976</v>
+        <v>2258915.037357256</v>
       </c>
     </row>
     <row r="12">
@@ -15712,28 +15712,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>1702.026068465037</v>
+        <v>1833.58679190746</v>
       </c>
       <c r="AB12" t="n">
-        <v>2328.787154964553</v>
+        <v>2508.794340827965</v>
       </c>
       <c r="AC12" t="n">
-        <v>2106.530977368035</v>
+        <v>2269.358530054315</v>
       </c>
       <c r="AD12" t="n">
-        <v>1702026.068465037</v>
+        <v>1833586.79190746</v>
       </c>
       <c r="AE12" t="n">
-        <v>2328787.154964553</v>
+        <v>2508794.340827965</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.087482002853012e-06</v>
+        <v>1.614740253937028e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>30</v>
+        <v>29.78515625</v>
       </c>
       <c r="AH12" t="n">
-        <v>2106530.977368035</v>
+        <v>2269358.530054315</v>
       </c>
     </row>
   </sheetData>
@@ -16009,28 +16009,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>5264.94050642085</v>
+        <v>5498.807996117816</v>
       </c>
       <c r="AB2" t="n">
-        <v>7203.723873667574</v>
+        <v>7523.711690576451</v>
       </c>
       <c r="AC2" t="n">
-        <v>6516.210577654426</v>
+        <v>6805.65920642323</v>
       </c>
       <c r="AD2" t="n">
-        <v>5264940.506420851</v>
+        <v>5498807.996117816</v>
       </c>
       <c r="AE2" t="n">
-        <v>7203723.873667574</v>
+        <v>7523711.690576452</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.91844832226921e-07</v>
+        <v>8.702737823671664e-07</v>
       </c>
       <c r="AG2" t="n">
-        <v>54</v>
+        <v>53.62630208333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>6516210.577654426</v>
+        <v>6805659.20642323</v>
       </c>
     </row>
     <row r="3">
@@ -16115,28 +16115,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2973.483462473573</v>
+        <v>3140.482903197365</v>
       </c>
       <c r="AB3" t="n">
-        <v>4068.451254188661</v>
+        <v>4296.947256482318</v>
       </c>
       <c r="AC3" t="n">
-        <v>3680.163976595939</v>
+        <v>3886.852641126835</v>
       </c>
       <c r="AD3" t="n">
-        <v>2973483.462473573</v>
+        <v>3140482.903197364</v>
       </c>
       <c r="AE3" t="n">
-        <v>4068451.254188661</v>
+        <v>4296947.256482318</v>
       </c>
       <c r="AF3" t="n">
-        <v>8.356030003599196e-07</v>
+        <v>1.228706147427778e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>38</v>
+        <v>37.98502604166666</v>
       </c>
       <c r="AH3" t="n">
-        <v>3680163.97659594</v>
+        <v>3886852.641126835</v>
       </c>
     </row>
     <row r="4">
@@ -16221,28 +16221,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>2519.081343085219</v>
+        <v>2669.278520219696</v>
       </c>
       <c r="AB4" t="n">
-        <v>3446.718227634804</v>
+        <v>3652.224631622006</v>
       </c>
       <c r="AC4" t="n">
-        <v>3117.768277488623</v>
+        <v>3303.661438709328</v>
       </c>
       <c r="AD4" t="n">
-        <v>2519081.343085219</v>
+        <v>2669278.520219696</v>
       </c>
       <c r="AE4" t="n">
-        <v>3446718.227634804</v>
+        <v>3652224.631622006</v>
       </c>
       <c r="AF4" t="n">
-        <v>9.24233470293078e-07</v>
+        <v>1.359032155363817e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>35</v>
+        <v>34.33919270833334</v>
       </c>
       <c r="AH4" t="n">
-        <v>3117768.277488623</v>
+        <v>3303661.438709328</v>
       </c>
     </row>
     <row r="5">
@@ -16327,28 +16327,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>2303.572725322222</v>
+        <v>2445.581988535645</v>
       </c>
       <c r="AB5" t="n">
-        <v>3151.84982924225</v>
+        <v>3346.153168177397</v>
       </c>
       <c r="AC5" t="n">
-        <v>2851.04170518827</v>
+        <v>3026.801006161887</v>
       </c>
       <c r="AD5" t="n">
-        <v>2303572.725322222</v>
+        <v>2445581.988535644</v>
       </c>
       <c r="AE5" t="n">
-        <v>3151849.82924225</v>
+        <v>3346153.168177397</v>
       </c>
       <c r="AF5" t="n">
-        <v>9.717175614453862e-07</v>
+        <v>1.428854780077624e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>33</v>
+        <v>32.66276041666666</v>
       </c>
       <c r="AH5" t="n">
-        <v>2851041.70518827</v>
+        <v>3026801.006161887</v>
       </c>
     </row>
     <row r="6">
@@ -16433,28 +16433,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>2175.868588692268</v>
+        <v>2317.792511051121</v>
       </c>
       <c r="AB6" t="n">
-        <v>2977.119395596079</v>
+        <v>3171.305967409202</v>
       </c>
       <c r="AC6" t="n">
-        <v>2692.987298893703</v>
+        <v>2868.640976835429</v>
       </c>
       <c r="AD6" t="n">
-        <v>2175868.588692267</v>
+        <v>2317792.511051121</v>
       </c>
       <c r="AE6" t="n">
-        <v>2977119.395596079</v>
+        <v>3171305.967409202</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.000578528552333e-06</v>
+        <v>1.471293172100801e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>32</v>
+        <v>31.71875</v>
       </c>
       <c r="AH6" t="n">
-        <v>2692987.298893703</v>
+        <v>2868640.976835429</v>
       </c>
     </row>
     <row r="7">
@@ -16539,28 +16539,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>2087.714680987928</v>
+        <v>2221.280186733686</v>
       </c>
       <c r="AB7" t="n">
-        <v>2856.503329999071</v>
+        <v>3039.253547454834</v>
       </c>
       <c r="AC7" t="n">
-        <v>2583.882661311564</v>
+        <v>2749.191454504774</v>
       </c>
       <c r="AD7" t="n">
-        <v>2087714.680987928</v>
+        <v>2221280.186733686</v>
       </c>
       <c r="AE7" t="n">
-        <v>2856503.329999072</v>
+        <v>3039253.547454834</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.020761704873745e-06</v>
+        <v>1.500971371927819e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>32</v>
+        <v>31.09375</v>
       </c>
       <c r="AH7" t="n">
-        <v>2583882.661311564</v>
+        <v>2749191.454504774</v>
       </c>
     </row>
     <row r="8">
@@ -16645,28 +16645,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>2014.971172082799</v>
+        <v>2148.621929174574</v>
       </c>
       <c r="AB8" t="n">
-        <v>2756.972451897955</v>
+        <v>2939.839314006188</v>
       </c>
       <c r="AC8" t="n">
-        <v>2493.850870523952</v>
+        <v>2659.265175967829</v>
       </c>
       <c r="AD8" t="n">
-        <v>2014971.172082799</v>
+        <v>2148621.929174574</v>
       </c>
       <c r="AE8" t="n">
-        <v>2756972.451897955</v>
+        <v>2939839.314006188</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.034509665556447e-06</v>
+        <v>1.521186957317238e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>31</v>
+        <v>30.68033854166667</v>
       </c>
       <c r="AH8" t="n">
-        <v>2493850.870523952</v>
+        <v>2659265.175967829</v>
       </c>
     </row>
     <row r="9">
@@ -16751,28 +16751,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1956.495145161485</v>
+        <v>2081.787485640165</v>
       </c>
       <c r="AB9" t="n">
-        <v>2676.962972083979</v>
+        <v>2848.393479834859</v>
       </c>
       <c r="AC9" t="n">
-        <v>2421.477383169411</v>
+        <v>2576.546803864776</v>
       </c>
       <c r="AD9" t="n">
-        <v>1956495.145161486</v>
+        <v>2081787.485640165</v>
       </c>
       <c r="AE9" t="n">
-        <v>2676962.972083979</v>
+        <v>2848393.479834859</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.046015051092324e-06</v>
+        <v>1.538104964948099e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>31</v>
+        <v>30.34505208333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>2421477.383169412</v>
+        <v>2576546.803864776</v>
       </c>
     </row>
     <row r="10">
@@ -16857,28 +16857,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1905.153280141689</v>
+        <v>2030.445620620369</v>
       </c>
       <c r="AB10" t="n">
-        <v>2606.714767320667</v>
+        <v>2778.145275071548</v>
       </c>
       <c r="AC10" t="n">
-        <v>2357.933568474737</v>
+        <v>2513.002989170101</v>
       </c>
       <c r="AD10" t="n">
-        <v>1905153.280141689</v>
+        <v>2030445.620620369</v>
       </c>
       <c r="AE10" t="n">
-        <v>2606714.767320667</v>
+        <v>2778145.275071547</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.05410782227434e-06</v>
+        <v>1.550004919468111e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>31</v>
+        <v>30.11067708333333</v>
       </c>
       <c r="AH10" t="n">
-        <v>2357933.568474737</v>
+        <v>2513002.989170101</v>
       </c>
     </row>
     <row r="11">
@@ -16963,28 +16963,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1849.732420813212</v>
+        <v>1983.297837050416</v>
       </c>
       <c r="AB11" t="n">
-        <v>2530.885502591691</v>
+        <v>2713.635597577726</v>
       </c>
       <c r="AC11" t="n">
-        <v>2289.341342344452</v>
+        <v>2454.650024756389</v>
       </c>
       <c r="AD11" t="n">
-        <v>1849732.420813212</v>
+        <v>1983297.837050416</v>
       </c>
       <c r="AE11" t="n">
-        <v>2530885.502591691</v>
+        <v>2713635.597577726</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.060933050982064e-06</v>
+        <v>1.560041025689808e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>30</v>
+        <v>29.91536458333333</v>
       </c>
       <c r="AH11" t="n">
-        <v>2289341.342344452</v>
+        <v>2454650.024756389</v>
       </c>
     </row>
     <row r="12">
@@ -17069,28 +17069,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>1804.646429416321</v>
+        <v>1938.211845653525</v>
       </c>
       <c r="AB12" t="n">
-        <v>2469.196860108905</v>
+        <v>2651.946955094941</v>
       </c>
       <c r="AC12" t="n">
-        <v>2233.540177319669</v>
+        <v>2398.848859731607</v>
       </c>
       <c r="AD12" t="n">
-        <v>1804646.429416321</v>
+        <v>1938211.845653525</v>
       </c>
       <c r="AE12" t="n">
-        <v>2469196.860108905</v>
+        <v>2651946.95509494</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.06629573068099e-06</v>
+        <v>1.567926537721142e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>30</v>
+        <v>29.76888020833333</v>
       </c>
       <c r="AH12" t="n">
-        <v>2233540.177319669</v>
+        <v>2398848.859731607</v>
       </c>
     </row>
     <row r="13">
@@ -17175,28 +17175,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>1790.893770695654</v>
+        <v>1924.459186932858</v>
       </c>
       <c r="AB13" t="n">
-        <v>2450.379865722806</v>
+        <v>2633.129960708842</v>
       </c>
       <c r="AC13" t="n">
-        <v>2216.519050467962</v>
+        <v>2381.8277328799</v>
       </c>
       <c r="AD13" t="n">
-        <v>1790893.770695654</v>
+        <v>1924459.186932858</v>
       </c>
       <c r="AE13" t="n">
-        <v>2450379.865722806</v>
+        <v>2633129.960708842</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.068538305827814e-06</v>
+        <v>1.5712241154797e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>30</v>
+        <v>29.70377604166667</v>
       </c>
       <c r="AH13" t="n">
-        <v>2216519.050467962</v>
+        <v>2381827.7328799</v>
       </c>
     </row>
     <row r="14">
@@ -17281,28 +17281,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>1799.428476303915</v>
+        <v>1932.99389254112</v>
       </c>
       <c r="AB14" t="n">
-        <v>2462.057426460667</v>
+        <v>2644.807521446702</v>
       </c>
       <c r="AC14" t="n">
-        <v>2227.082121198561</v>
+        <v>2392.390803610499</v>
       </c>
       <c r="AD14" t="n">
-        <v>1799428.476303915</v>
+        <v>1932993.89254112</v>
       </c>
       <c r="AE14" t="n">
-        <v>2462057.426460667</v>
+        <v>2644807.521446702</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.068343299293307e-06</v>
+        <v>1.570937369587651e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>30</v>
+        <v>29.71028645833333</v>
       </c>
       <c r="AH14" t="n">
-        <v>2227082.121198561</v>
+        <v>2392390.803610499</v>
       </c>
     </row>
     <row r="15">
@@ -17387,28 +17387,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>1807.772448552241</v>
+        <v>1941.337864789445</v>
       </c>
       <c r="AB15" t="n">
-        <v>2473.474017400901</v>
+        <v>2656.224112386937</v>
       </c>
       <c r="AC15" t="n">
-        <v>2237.409128722746</v>
+        <v>2402.717811134683</v>
       </c>
       <c r="AD15" t="n">
-        <v>1807772.448552241</v>
+        <v>1941337.864789445</v>
       </c>
       <c r="AE15" t="n">
-        <v>2473474.017400901</v>
+        <v>2656224.112386937</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.068343299293307e-06</v>
+        <v>1.570937369587651e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>30</v>
+        <v>29.71028645833333</v>
       </c>
       <c r="AH15" t="n">
-        <v>2237409.128722746</v>
+        <v>2402717.811134683</v>
       </c>
     </row>
   </sheetData>
@@ -17684,28 +17684,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>7597.124093147289</v>
+        <v>7879.988661112418</v>
       </c>
       <c r="AB2" t="n">
-        <v>10394.7203457052</v>
+        <v>10781.74812669912</v>
       </c>
       <c r="AC2" t="n">
-        <v>9402.662824992334</v>
+        <v>9752.753217765081</v>
       </c>
       <c r="AD2" t="n">
-        <v>7597124.093147289</v>
+        <v>7879988.661112417</v>
       </c>
       <c r="AE2" t="n">
-        <v>10394720.3457052</v>
+        <v>10781748.12669912</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.832671998043634e-07</v>
+        <v>6.991776980501482e-07</v>
       </c>
       <c r="AG2" t="n">
-        <v>64</v>
+        <v>63.388671875</v>
       </c>
       <c r="AH2" t="n">
-        <v>9402662.824992334</v>
+        <v>9752753.217765082</v>
       </c>
     </row>
     <row r="3">
@@ -17790,28 +17790,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>3728.091582085558</v>
+        <v>3908.14288925988</v>
       </c>
       <c r="AB3" t="n">
-        <v>5100.939374402518</v>
+        <v>5347.293516181499</v>
       </c>
       <c r="AC3" t="n">
-        <v>4614.112879722726</v>
+        <v>4836.955327970521</v>
       </c>
       <c r="AD3" t="n">
-        <v>3728091.582085558</v>
+        <v>3908142.889259879</v>
       </c>
       <c r="AE3" t="n">
-        <v>5100939.374402518</v>
+        <v>5347293.5161815</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.470642710899779e-07</v>
+        <v>1.080832048125039e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>42</v>
+        <v>41.005859375</v>
       </c>
       <c r="AH3" t="n">
-        <v>4614112.879722726</v>
+        <v>4836955.327970522</v>
       </c>
     </row>
     <row r="4">
@@ -17896,28 +17896,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>3047.637455905638</v>
+        <v>3202.028118309544</v>
       </c>
       <c r="AB4" t="n">
-        <v>4169.912019445722</v>
+        <v>4381.156134982069</v>
       </c>
       <c r="AC4" t="n">
-        <v>3771.941468817941</v>
+        <v>3963.02474245047</v>
       </c>
       <c r="AD4" t="n">
-        <v>3047637.455905638</v>
+        <v>3202028.118309543</v>
       </c>
       <c r="AE4" t="n">
-        <v>4169912.019445722</v>
+        <v>4381156.134982069</v>
       </c>
       <c r="AF4" t="n">
-        <v>8.476704320619086e-07</v>
+        <v>1.226386275820386e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>37</v>
+        <v>36.142578125</v>
       </c>
       <c r="AH4" t="n">
-        <v>3771941.468817941</v>
+        <v>3963024.74245047</v>
       </c>
     </row>
     <row r="5">
@@ -18002,28 +18002,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>2748.102903313276</v>
+        <v>2902.408135354058</v>
       </c>
       <c r="AB5" t="n">
-        <v>3760.075630057003</v>
+        <v>3971.202856001604</v>
       </c>
       <c r="AC5" t="n">
-        <v>3401.219289223512</v>
+        <v>3592.196829042875</v>
       </c>
       <c r="AD5" t="n">
-        <v>2748102.903313276</v>
+        <v>2902408.135354058</v>
       </c>
       <c r="AE5" t="n">
-        <v>3760075.630057003</v>
+        <v>3971202.856001604</v>
       </c>
       <c r="AF5" t="n">
-        <v>9.016909525463692e-07</v>
+        <v>1.304541679653061e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>34</v>
+        <v>33.97786458333334</v>
       </c>
       <c r="AH5" t="n">
-        <v>3401219.289223512</v>
+        <v>3592196.829042875</v>
       </c>
     </row>
     <row r="6">
@@ -18108,28 +18108,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>2584.174485838621</v>
+        <v>2729.983063525646</v>
       </c>
       <c r="AB6" t="n">
-        <v>3535.781537256798</v>
+        <v>3735.283265868653</v>
       </c>
       <c r="AC6" t="n">
-        <v>3198.331509841431</v>
+        <v>3378.793073476997</v>
       </c>
       <c r="AD6" t="n">
-        <v>2584174.485838621</v>
+        <v>2729983.063525646</v>
       </c>
       <c r="AE6" t="n">
-        <v>3535781.537256798</v>
+        <v>3735283.265868653</v>
       </c>
       <c r="AF6" t="n">
-        <v>9.351949687353377e-07</v>
+        <v>1.353014369138135e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>33</v>
+        <v>32.75716145833334</v>
       </c>
       <c r="AH6" t="n">
-        <v>3198331.509841431</v>
+        <v>3378793.073476997</v>
       </c>
     </row>
     <row r="7">
@@ -18214,28 +18214,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>2472.621840170234</v>
+        <v>2618.345077002688</v>
       </c>
       <c r="AB7" t="n">
-        <v>3383.150286097908</v>
+        <v>3582.535247587564</v>
       </c>
       <c r="AC7" t="n">
-        <v>3060.267171073844</v>
+        <v>3240.623111677472</v>
       </c>
       <c r="AD7" t="n">
-        <v>2472621.840170234</v>
+        <v>2618345.077002688</v>
       </c>
       <c r="AE7" t="n">
-        <v>3383150.286097907</v>
+        <v>3582535.247587564</v>
       </c>
       <c r="AF7" t="n">
-        <v>9.579701707514342e-07</v>
+        <v>1.385964905248775e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>32</v>
+        <v>31.97916666666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>3060267.171073844</v>
+        <v>3240623.111677472</v>
       </c>
     </row>
     <row r="8">
@@ -18320,28 +18320,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>2393.939703759462</v>
+        <v>2531.081034892136</v>
       </c>
       <c r="AB8" t="n">
-        <v>3275.493915849809</v>
+        <v>3463.13673535407</v>
       </c>
       <c r="AC8" t="n">
-        <v>2962.885373705563</v>
+        <v>3132.619825874682</v>
       </c>
       <c r="AD8" t="n">
-        <v>2393939.703759462</v>
+        <v>2531081.034892136</v>
       </c>
       <c r="AE8" t="n">
-        <v>3275493.915849809</v>
+        <v>3463136.73535407</v>
       </c>
       <c r="AF8" t="n">
-        <v>9.74439841630843e-07</v>
+        <v>1.409792772270932e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>32</v>
+        <v>31.43880208333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>2962885.373705563</v>
+        <v>3132619.825874682</v>
       </c>
     </row>
     <row r="9">
@@ -18426,28 +18426,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>2332.550642487942</v>
+        <v>2469.691973620617</v>
       </c>
       <c r="AB9" t="n">
-        <v>3191.49869392387</v>
+        <v>3379.141513428131</v>
       </c>
       <c r="AC9" t="n">
-        <v>2886.906537872205</v>
+        <v>3056.640990041324</v>
       </c>
       <c r="AD9" t="n">
-        <v>2332550.642487942</v>
+        <v>2469691.973620617</v>
       </c>
       <c r="AE9" t="n">
-        <v>3191498.69392387</v>
+        <v>3379141.513428131</v>
       </c>
       <c r="AF9" t="n">
-        <v>9.87145016309244e-07</v>
+        <v>1.428174269688024e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>32</v>
+        <v>31.03190104166667</v>
       </c>
       <c r="AH9" t="n">
-        <v>2886906.537872205</v>
+        <v>3056640.990041323</v>
       </c>
     </row>
     <row r="10">
@@ -18532,28 +18532,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>2273.318276272138</v>
+        <v>2410.544858750833</v>
       </c>
       <c r="AB10" t="n">
-        <v>3110.454357319831</v>
+        <v>3298.213821476741</v>
       </c>
       <c r="AC10" t="n">
-        <v>2813.596959007217</v>
+        <v>2983.436923427048</v>
       </c>
       <c r="AD10" t="n">
-        <v>2273318.276272138</v>
+        <v>2410544.858750833</v>
       </c>
       <c r="AE10" t="n">
-        <v>3110454.357319831</v>
+        <v>3298213.821476741</v>
       </c>
       <c r="AF10" t="n">
-        <v>9.965562568117632e-07</v>
+        <v>1.441790193700685e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>31</v>
+        <v>30.73893229166667</v>
       </c>
       <c r="AH10" t="n">
-        <v>2813596.959007217</v>
+        <v>2983436.923427048</v>
       </c>
     </row>
     <row r="11">
@@ -18638,28 +18638,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>2226.501543526641</v>
+        <v>2363.557533804745</v>
       </c>
       <c r="AB11" t="n">
-        <v>3046.39763816896</v>
+        <v>3233.923690551023</v>
       </c>
       <c r="AC11" t="n">
-        <v>2755.653723227938</v>
+        <v>2925.282552365118</v>
       </c>
       <c r="AD11" t="n">
-        <v>2226501.543526642</v>
+        <v>2363557.533804744</v>
       </c>
       <c r="AE11" t="n">
-        <v>3046397.63816896</v>
+        <v>3233923.690551023</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.005308710479106e-06</v>
+        <v>1.45445300303246e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>31</v>
+        <v>30.47526041666667</v>
       </c>
       <c r="AH11" t="n">
-        <v>2755653.723227938</v>
+        <v>2925282.552365118</v>
       </c>
     </row>
     <row r="12">
@@ -18744,28 +18744,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>2186.740766755022</v>
+        <v>2315.385443533943</v>
       </c>
       <c r="AB12" t="n">
-        <v>2991.995189268185</v>
+        <v>3168.012511439874</v>
       </c>
       <c r="AC12" t="n">
-        <v>2706.443367696051</v>
+        <v>2865.661843681418</v>
       </c>
       <c r="AD12" t="n">
-        <v>2186740.766755023</v>
+        <v>2315385.443533943</v>
       </c>
       <c r="AE12" t="n">
-        <v>2991995.189268185</v>
+        <v>3168012.511439874</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.011614241615794e-06</v>
+        <v>1.463575672120943e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>31</v>
+        <v>30.283203125</v>
       </c>
       <c r="AH12" t="n">
-        <v>2706443.367696051</v>
+        <v>2865661.843681418</v>
       </c>
     </row>
     <row r="13">
@@ -18850,28 +18850,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>2147.522333020017</v>
+        <v>2276.167009798937</v>
       </c>
       <c r="AB13" t="n">
-        <v>2938.334798036764</v>
+        <v>3114.352120208451</v>
       </c>
       <c r="AC13" t="n">
-        <v>2657.904248890925</v>
+        <v>2817.122724876292</v>
       </c>
       <c r="AD13" t="n">
-        <v>2147522.333020017</v>
+        <v>2276167.009798937</v>
       </c>
       <c r="AE13" t="n">
-        <v>2938334.798036764</v>
+        <v>3114352.120208451</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.017543323132381e-06</v>
+        <v>1.47215370424892e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>31</v>
+        <v>30.107421875</v>
       </c>
       <c r="AH13" t="n">
-        <v>2657904.248890925</v>
+        <v>2817122.724876292</v>
       </c>
     </row>
     <row r="14">
@@ -18956,28 +18956,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>2099.652735215596</v>
+        <v>2236.793976839723</v>
       </c>
       <c r="AB14" t="n">
-        <v>2872.83750246315</v>
+        <v>3060.48019949803</v>
       </c>
       <c r="AC14" t="n">
-        <v>2598.657923280824</v>
+        <v>2768.39226466876</v>
       </c>
       <c r="AD14" t="n">
-        <v>2099652.735215596</v>
+        <v>2236793.976839723</v>
       </c>
       <c r="AE14" t="n">
-        <v>2872837.502463149</v>
+        <v>3060480.19949803</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.022813617813792e-06</v>
+        <v>1.47977862169601e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>30</v>
+        <v>29.951171875</v>
       </c>
       <c r="AH14" t="n">
-        <v>2598657.923280824</v>
+        <v>2768392.26466876</v>
       </c>
     </row>
     <row r="15">
@@ -19062,28 +19062,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>2066.487795655648</v>
+        <v>2203.629037279774</v>
       </c>
       <c r="AB15" t="n">
-        <v>2827.459769023357</v>
+        <v>3015.102466058235</v>
       </c>
       <c r="AC15" t="n">
-        <v>2557.610977032477</v>
+        <v>2727.345318420412</v>
       </c>
       <c r="AD15" t="n">
-        <v>2066487.795655648</v>
+        <v>2203629.037279774</v>
       </c>
       <c r="AE15" t="n">
-        <v>2827459.769023357</v>
+        <v>3015102.466058235</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.026860451229875e-06</v>
+        <v>1.485633469021454e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>30</v>
+        <v>29.833984375</v>
       </c>
       <c r="AH15" t="n">
-        <v>2557610.977032477</v>
+        <v>2727345.318420412</v>
       </c>
     </row>
     <row r="16">
@@ -19168,28 +19168,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>2033.666748609598</v>
+        <v>2170.807990233722</v>
       </c>
       <c r="AB16" t="n">
-        <v>2782.552564492549</v>
+        <v>2970.195261527249</v>
       </c>
       <c r="AC16" t="n">
-        <v>2516.989653074431</v>
+        <v>2686.72399446232</v>
       </c>
       <c r="AD16" t="n">
-        <v>2033666.748609598</v>
+        <v>2170807.990233722</v>
       </c>
       <c r="AE16" t="n">
-        <v>2782552.564492549</v>
+        <v>2970195.26152725</v>
       </c>
       <c r="AF16" t="n">
-        <v>1.030154385405757e-06</v>
+        <v>1.490399042425886e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>30</v>
+        <v>29.73958333333333</v>
       </c>
       <c r="AH16" t="n">
-        <v>2516989.653074431</v>
+        <v>2686723.99446232</v>
       </c>
     </row>
     <row r="17">
@@ -19274,28 +19274,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>2007.039398552943</v>
+        <v>2135.769326677881</v>
       </c>
       <c r="AB17" t="n">
-        <v>2746.119849429255</v>
+        <v>2922.253816253409</v>
       </c>
       <c r="AC17" t="n">
-        <v>2484.034025203142</v>
+        <v>2643.358013439173</v>
       </c>
       <c r="AD17" t="n">
-        <v>2007039.398552943</v>
+        <v>2135769.326677881</v>
       </c>
       <c r="AE17" t="n">
-        <v>2746119.849429255</v>
+        <v>2922253.816253409</v>
       </c>
       <c r="AF17" t="n">
-        <v>1.032413083126362e-06</v>
+        <v>1.493666864188924e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>30</v>
+        <v>29.67447916666667</v>
       </c>
       <c r="AH17" t="n">
-        <v>2484034.025203142</v>
+        <v>2643358.013439173</v>
       </c>
     </row>
     <row r="18">
@@ -19380,28 +19380,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>1995.03571691285</v>
+        <v>2123.765645037788</v>
       </c>
       <c r="AB18" t="n">
-        <v>2729.695882644221</v>
+        <v>2905.829849468375</v>
       </c>
       <c r="AC18" t="n">
-        <v>2469.177538756889</v>
+        <v>2628.501526992921</v>
       </c>
       <c r="AD18" t="n">
-        <v>1995035.71691285</v>
+        <v>2123765.645037788</v>
       </c>
       <c r="AE18" t="n">
-        <v>2729695.882644222</v>
+        <v>2905829.849468375</v>
       </c>
       <c r="AF18" t="n">
-        <v>1.03401299401179e-06</v>
+        <v>1.495981571271077e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>30</v>
+        <v>29.62890625</v>
       </c>
       <c r="AH18" t="n">
-        <v>2469177.538756889</v>
+        <v>2628501.526992921</v>
       </c>
     </row>
     <row r="19">
@@ -19486,28 +19486,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>1995.715347292034</v>
+        <v>2124.445275416972</v>
       </c>
       <c r="AB19" t="n">
-        <v>2730.625782912197</v>
+        <v>2906.759749736351</v>
       </c>
       <c r="AC19" t="n">
-        <v>2470.018690648413</v>
+        <v>2629.342678884444</v>
       </c>
       <c r="AD19" t="n">
-        <v>1995715.347292034</v>
+        <v>2124445.275416972</v>
       </c>
       <c r="AE19" t="n">
-        <v>2730625.782912198</v>
+        <v>2906759.749736351</v>
       </c>
       <c r="AF19" t="n">
-        <v>1.034483556036916e-06</v>
+        <v>1.49666236747171e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>30</v>
+        <v>29.61588541666667</v>
       </c>
       <c r="AH19" t="n">
-        <v>2470018.690648413</v>
+        <v>2629342.678884444</v>
       </c>
     </row>
     <row r="20">
@@ -19592,28 +19592,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>2007.11724280312</v>
+        <v>2135.847170928058</v>
       </c>
       <c r="AB20" t="n">
-        <v>2746.226359366595</v>
+        <v>2922.360326190747</v>
       </c>
       <c r="AC20" t="n">
-        <v>2484.130369981548</v>
+        <v>2643.45435821758</v>
       </c>
       <c r="AD20" t="n">
-        <v>2007117.242803121</v>
+        <v>2135847.170928058</v>
       </c>
       <c r="AE20" t="n">
-        <v>2746226.359366595</v>
+        <v>2922360.326190747</v>
       </c>
       <c r="AF20" t="n">
-        <v>1.034389443631891e-06</v>
+        <v>1.496526208231583e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>30</v>
+        <v>29.619140625</v>
       </c>
       <c r="AH20" t="n">
-        <v>2484130.369981548</v>
+        <v>2643454.35821758</v>
       </c>
     </row>
   </sheetData>
@@ -19889,28 +19889,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>3586.444901901046</v>
+        <v>3780.573641788678</v>
       </c>
       <c r="AB2" t="n">
-        <v>4907.13213756356</v>
+        <v>5172.747643833395</v>
       </c>
       <c r="AC2" t="n">
-        <v>4438.802333557519</v>
+        <v>4679.067868702656</v>
       </c>
       <c r="AD2" t="n">
-        <v>3586444.901901046</v>
+        <v>3780573.641788678</v>
       </c>
       <c r="AE2" t="n">
-        <v>4907132.13756356</v>
+        <v>5172747.643833395</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.241098882796299e-07</v>
+        <v>1.087384678099987e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>46</v>
+        <v>45.76822916666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>4438802.333557519</v>
+        <v>4679067.868702656</v>
       </c>
     </row>
     <row r="3">
@@ -19995,28 +19995,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2310.959968422765</v>
+        <v>2456.513942419753</v>
       </c>
       <c r="AB3" t="n">
-        <v>3161.957381154578</v>
+        <v>3361.110749765403</v>
       </c>
       <c r="AC3" t="n">
-        <v>2860.184606532123</v>
+        <v>3040.331057156232</v>
       </c>
       <c r="AD3" t="n">
-        <v>2310959.968422765</v>
+        <v>2456513.942419753</v>
       </c>
       <c r="AE3" t="n">
-        <v>3161957.381154578</v>
+        <v>3361110.749765404</v>
       </c>
       <c r="AF3" t="n">
-        <v>9.38940015426708e-07</v>
+        <v>1.409991774667896e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>36</v>
+        <v>35.29947916666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>2860184.606532123</v>
+        <v>3040331.057156232</v>
       </c>
     </row>
     <row r="4">
@@ -20101,28 +20101,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>2003.64013622196</v>
+        <v>2141.18355233177</v>
       </c>
       <c r="AB4" t="n">
-        <v>2741.468828743135</v>
+        <v>2929.661798651839</v>
       </c>
       <c r="AC4" t="n">
-        <v>2479.826891403556</v>
+        <v>2650.058988394665</v>
       </c>
       <c r="AD4" t="n">
-        <v>2003640.13622196</v>
+        <v>2141183.55233177</v>
       </c>
       <c r="AE4" t="n">
-        <v>2741468.828743135</v>
+        <v>2929661.798651839</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.01479235889807e-06</v>
+        <v>1.523898071797324e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>33</v>
+        <v>32.65950520833334</v>
       </c>
       <c r="AH4" t="n">
-        <v>2479826.891403556</v>
+        <v>2650058.988394665</v>
       </c>
     </row>
     <row r="5">
@@ -20207,28 +20207,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1852.962134064334</v>
+        <v>1982.324489594925</v>
       </c>
       <c r="AB5" t="n">
-        <v>2535.304538746769</v>
+        <v>2712.303820648065</v>
       </c>
       <c r="AC5" t="n">
-        <v>2293.338631891045</v>
+        <v>2453.445350747734</v>
       </c>
       <c r="AD5" t="n">
-        <v>1852962.134064334</v>
+        <v>1982324.489594925</v>
       </c>
       <c r="AE5" t="n">
-        <v>2535304.538746769</v>
+        <v>2712303.820648065</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.054500297091132e-06</v>
+        <v>1.58352687163689e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>32</v>
+        <v>31.42903645833333</v>
       </c>
       <c r="AH5" t="n">
-        <v>2293338.631891045</v>
+        <v>2453445.350747734</v>
       </c>
     </row>
     <row r="6">
@@ -20313,28 +20313,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1746.286081489407</v>
+        <v>1875.733688366018</v>
       </c>
       <c r="AB6" t="n">
-        <v>2389.345657398462</v>
+        <v>2566.461583952407</v>
       </c>
       <c r="AC6" t="n">
-        <v>2161.309861324044</v>
+        <v>2321.522092431445</v>
       </c>
       <c r="AD6" t="n">
-        <v>1746286.081489407</v>
+        <v>1875733.688366018</v>
       </c>
       <c r="AE6" t="n">
-        <v>2389345.657398462</v>
+        <v>2566461.583952407</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.078935951363785e-06</v>
+        <v>1.620221517692008e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>31</v>
+        <v>30.71940104166667</v>
       </c>
       <c r="AH6" t="n">
-        <v>2161309.861324044</v>
+        <v>2321522.092431445</v>
       </c>
     </row>
     <row r="7">
@@ -20419,28 +20419,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1668.538268320379</v>
+        <v>1789.890155472342</v>
       </c>
       <c r="AB7" t="n">
-        <v>2282.967669429157</v>
+        <v>2449.006675097892</v>
       </c>
       <c r="AC7" t="n">
-        <v>2065.084439224086</v>
+        <v>2215.276915229005</v>
       </c>
       <c r="AD7" t="n">
-        <v>1668538.268320379</v>
+        <v>1789890.155472342</v>
       </c>
       <c r="AE7" t="n">
-        <v>2282967.669429157</v>
+        <v>2449006.675097892</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.095633648450098e-06</v>
+        <v>1.645296192496338e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>31</v>
+        <v>30.25065104166667</v>
       </c>
       <c r="AH7" t="n">
-        <v>2065084.439224086</v>
+        <v>2215276.915229005</v>
       </c>
     </row>
     <row r="8">
@@ -20525,28 +20525,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1598.970302132733</v>
+        <v>1728.332568154772</v>
       </c>
       <c r="AB8" t="n">
-        <v>2187.781708969159</v>
+        <v>2364.780868400906</v>
       </c>
       <c r="AC8" t="n">
-        <v>1978.982893236055</v>
+        <v>2139.089501311517</v>
       </c>
       <c r="AD8" t="n">
-        <v>1598970.302132732</v>
+        <v>1728332.568154772</v>
       </c>
       <c r="AE8" t="n">
-        <v>2187781.708969159</v>
+        <v>2364780.868400906</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.106324247194384e-06</v>
+        <v>1.661350100145452e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>30</v>
+        <v>29.95768229166667</v>
       </c>
       <c r="AH8" t="n">
-        <v>1978982.893236055</v>
+        <v>2139089.501311517</v>
       </c>
     </row>
     <row r="9">
@@ -20631,28 +20631,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1589.43613384566</v>
+        <v>1718.7983998677</v>
       </c>
       <c r="AB9" t="n">
-        <v>2174.736639300968</v>
+        <v>2351.735798732715</v>
       </c>
       <c r="AC9" t="n">
-        <v>1967.182826708126</v>
+        <v>2127.289434783588</v>
       </c>
       <c r="AD9" t="n">
-        <v>1589436.13384566</v>
+        <v>1718798.3998677</v>
       </c>
       <c r="AE9" t="n">
-        <v>2174736.639300968</v>
+        <v>2351735.798732716</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.108869627847785e-06</v>
+        <v>1.665172459109527e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>30</v>
+        <v>29.88606770833333</v>
       </c>
       <c r="AH9" t="n">
-        <v>1967182.826708126</v>
+        <v>2127289.434783588</v>
       </c>
     </row>
     <row r="10">
@@ -20737,28 +20737,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1596.395920512557</v>
+        <v>1725.758186534597</v>
       </c>
       <c r="AB10" t="n">
-        <v>2184.259326462733</v>
+        <v>2361.258485894481</v>
       </c>
       <c r="AC10" t="n">
-        <v>1975.796681972349</v>
+        <v>2135.903290047811</v>
       </c>
       <c r="AD10" t="n">
-        <v>1596395.920512557</v>
+        <v>1725758.186534597</v>
       </c>
       <c r="AE10" t="n">
-        <v>2184259.326462734</v>
+        <v>2361258.485894481</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.109378703978465e-06</v>
+        <v>1.665936930902342e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>30</v>
+        <v>29.87630208333333</v>
       </c>
       <c r="AH10" t="n">
-        <v>1975796.681972349</v>
+        <v>2135903.29004781</v>
       </c>
     </row>
   </sheetData>
@@ -21034,28 +21034,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2591.202448329724</v>
+        <v>2756.139139308842</v>
       </c>
       <c r="AB2" t="n">
-        <v>3545.397505588948</v>
+        <v>3771.071162679846</v>
       </c>
       <c r="AC2" t="n">
-        <v>3207.029743652056</v>
+        <v>3411.165423645158</v>
       </c>
       <c r="AD2" t="n">
-        <v>2591202.448329723</v>
+        <v>2756139.139308841</v>
       </c>
       <c r="AE2" t="n">
-        <v>3545397.505588948</v>
+        <v>3771071.162679846</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.477193174260269e-07</v>
+        <v>1.300186747066405e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>41</v>
+        <v>40.72591145833334</v>
       </c>
       <c r="AH2" t="n">
-        <v>3207029.743652056</v>
+        <v>3411165.423645158</v>
       </c>
     </row>
     <row r="3">
@@ -21140,28 +21140,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1825.18470161186</v>
+        <v>1958.603373276636</v>
       </c>
       <c r="AB3" t="n">
-        <v>2497.298230211462</v>
+        <v>2679.847542799588</v>
       </c>
       <c r="AC3" t="n">
-        <v>2258.959592100159</v>
+        <v>2424.086654504443</v>
       </c>
       <c r="AD3" t="n">
-        <v>1825184.70161186</v>
+        <v>1958603.373276636</v>
       </c>
       <c r="AE3" t="n">
-        <v>2497298.230211462</v>
+        <v>2679847.542799588</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.033320318989338e-06</v>
+        <v>1.584851679803326e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>34</v>
+        <v>33.41145833333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>2258959.592100159</v>
+        <v>2424086.654504443</v>
       </c>
     </row>
     <row r="4">
@@ -21246,28 +21246,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1604.863713425581</v>
+        <v>1730.424193098276</v>
       </c>
       <c r="AB4" t="n">
-        <v>2195.845334298991</v>
+        <v>2367.642721924588</v>
       </c>
       <c r="AC4" t="n">
-        <v>1986.276937481778</v>
+        <v>2141.678223551536</v>
       </c>
       <c r="AD4" t="n">
-        <v>1604863.713425581</v>
+        <v>1730424.193098276</v>
       </c>
       <c r="AE4" t="n">
-        <v>2195845.334298992</v>
+        <v>2367642.721924589</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.098121582963729e-06</v>
+        <v>1.684240407747474e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>32</v>
+        <v>31.43880208333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>1986276.937481778</v>
+        <v>2141678.223551536</v>
       </c>
     </row>
     <row r="5">
@@ -21352,28 +21352,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1473.675985748978</v>
+        <v>1599.321716767694</v>
       </c>
       <c r="AB5" t="n">
-        <v>2016.348497697785</v>
+        <v>2188.262529976032</v>
       </c>
       <c r="AC5" t="n">
-        <v>1823.911027040399</v>
+        <v>1979.41782536087</v>
       </c>
       <c r="AD5" t="n">
-        <v>1473675.985748978</v>
+        <v>1599321.716767694</v>
       </c>
       <c r="AE5" t="n">
-        <v>2016348.497697785</v>
+        <v>2188262.529976032</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.131635820960304e-06</v>
+        <v>1.73564276131597e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>31</v>
+        <v>30.5078125</v>
       </c>
       <c r="AH5" t="n">
-        <v>1823911.027040399</v>
+        <v>1979417.82536087</v>
       </c>
     </row>
     <row r="6">
@@ -21458,28 +21458,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1428.50821799275</v>
+        <v>1546.295846527936</v>
       </c>
       <c r="AB6" t="n">
-        <v>1954.547965192436</v>
+        <v>2115.710194977703</v>
       </c>
       <c r="AC6" t="n">
-        <v>1768.008650619768</v>
+        <v>1913.789783386939</v>
       </c>
       <c r="AD6" t="n">
-        <v>1428508.21799275</v>
+        <v>1546295.846527936</v>
       </c>
       <c r="AE6" t="n">
-        <v>1954547.965192436</v>
+        <v>2115710.194977703</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.142771881054102e-06</v>
+        <v>1.752722657280185e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>31</v>
+        <v>30.21158854166667</v>
       </c>
       <c r="AH6" t="n">
-        <v>1768008.650619768</v>
+        <v>1913789.783386939</v>
       </c>
     </row>
     <row r="7">
@@ -21564,28 +21564,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1440.430247141382</v>
+        <v>1558.217875676567</v>
       </c>
       <c r="AB7" t="n">
-        <v>1970.860211436399</v>
+        <v>2132.022441221667</v>
       </c>
       <c r="AC7" t="n">
-        <v>1782.764078976588</v>
+        <v>1928.545211743759</v>
       </c>
       <c r="AD7" t="n">
-        <v>1440430.247141382</v>
+        <v>1558217.875676567</v>
       </c>
       <c r="AE7" t="n">
-        <v>1970860.211436399</v>
+        <v>2132022.441221667</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.142241592478207e-06</v>
+        <v>1.751909328900937e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>31</v>
+        <v>30.224609375</v>
       </c>
       <c r="AH7" t="n">
-        <v>1782764.078976588</v>
+        <v>1928545.211743759</v>
       </c>
     </row>
   </sheetData>
@@ -40138,28 +40138,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2001.867078034836</v>
+        <v>2147.564019746572</v>
       </c>
       <c r="AB2" t="n">
-        <v>2739.042852309704</v>
+        <v>2938.391835655126</v>
       </c>
       <c r="AC2" t="n">
-        <v>2477.632446756053</v>
+        <v>2657.955842919044</v>
       </c>
       <c r="AD2" t="n">
-        <v>2001867.078034836</v>
+        <v>2147564.019746572</v>
       </c>
       <c r="AE2" t="n">
-        <v>2739042.852309704</v>
+        <v>2938391.835655126</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.494461193265072e-07</v>
+        <v>1.483490833275893e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>38</v>
+        <v>37.6171875</v>
       </c>
       <c r="AH2" t="n">
-        <v>2477632.446756053</v>
+        <v>2657955.842919044</v>
       </c>
     </row>
     <row r="3">
@@ -40244,28 +40244,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1483.961221681078</v>
+        <v>1606.56813177652</v>
       </c>
       <c r="AB3" t="n">
-        <v>2030.42121125267</v>
+        <v>2198.177394680376</v>
       </c>
       <c r="AC3" t="n">
-        <v>1836.640660564782</v>
+        <v>1988.386429293431</v>
       </c>
       <c r="AD3" t="n">
-        <v>1483961.221681078</v>
+        <v>1606568.13177652</v>
       </c>
       <c r="AE3" t="n">
-        <v>2030421.21125267</v>
+        <v>2198177.394680376</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.111600194247304e-06</v>
+        <v>1.736853376791235e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>33</v>
+        <v>32.12890625</v>
       </c>
       <c r="AH3" t="n">
-        <v>1836640.660564782</v>
+        <v>1988386.429293431</v>
       </c>
     </row>
     <row r="4">
@@ -40350,28 +40350,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1314.265835151477</v>
+        <v>1436.872655738368</v>
       </c>
       <c r="AB4" t="n">
-        <v>1798.236496970782</v>
+        <v>1965.99255792894</v>
       </c>
       <c r="AC4" t="n">
-        <v>1626.615329540665</v>
+        <v>1778.360987488086</v>
       </c>
       <c r="AD4" t="n">
-        <v>1314265.835151477</v>
+        <v>1436872.655738368</v>
       </c>
       <c r="AE4" t="n">
-        <v>1798236.496970782</v>
+        <v>1965992.55792894</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.162725903931399e-06</v>
+        <v>1.81673628969932e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>31</v>
+        <v>30.71614583333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>1626615.329540665</v>
+        <v>1778360.987488086</v>
       </c>
     </row>
     <row r="5">
@@ -40456,28 +40456,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1312.789854607072</v>
+        <v>1435.396675193964</v>
       </c>
       <c r="AB5" t="n">
-        <v>1796.216995274262</v>
+        <v>1963.97305623242</v>
       </c>
       <c r="AC5" t="n">
-        <v>1624.788566251672</v>
+        <v>1776.534224199094</v>
       </c>
       <c r="AD5" t="n">
-        <v>1312789.854607072</v>
+        <v>1435396.675193964</v>
       </c>
       <c r="AE5" t="n">
-        <v>1796216.995274262</v>
+        <v>1963973.05623242</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.166017258632091e-06</v>
+        <v>1.821878966495978e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>31</v>
+        <v>30.62825520833333</v>
       </c>
       <c r="AH5" t="n">
-        <v>1624788.566251672</v>
+        <v>1776534.224199094</v>
       </c>
     </row>
   </sheetData>
@@ -40753,28 +40753,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1111.401003181863</v>
+        <v>1235.275517033091</v>
       </c>
       <c r="AB2" t="n">
-        <v>1520.667884105212</v>
+        <v>1690.158458914316</v>
       </c>
       <c r="AC2" t="n">
-        <v>1375.53747551699</v>
+        <v>1528.852107747829</v>
       </c>
       <c r="AD2" t="n">
-        <v>1111401.003181863</v>
+        <v>1235275.517033091</v>
       </c>
       <c r="AE2" t="n">
-        <v>1520667.884105212</v>
+        <v>1690158.458914316</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.165531608467101e-06</v>
+        <v>1.899439044687389e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>33</v>
+        <v>32.88736979166666</v>
       </c>
       <c r="AH2" t="n">
-        <v>1375537.47551699</v>
+        <v>1528852.107747829</v>
       </c>
     </row>
     <row r="3">
@@ -40859,28 +40859,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1090.509009444226</v>
+        <v>1214.212931094863</v>
       </c>
       <c r="AB3" t="n">
-        <v>1492.082536583664</v>
+        <v>1661.339699617921</v>
       </c>
       <c r="AC3" t="n">
-        <v>1349.680273443111</v>
+        <v>1502.783770391299</v>
       </c>
       <c r="AD3" t="n">
-        <v>1090509.009444227</v>
+        <v>1214212.931094863</v>
       </c>
       <c r="AE3" t="n">
-        <v>1492082.536583664</v>
+        <v>1661339.699617921</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.182017204060695e-06</v>
+        <v>1.926305226366136e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>33</v>
+        <v>32.431640625</v>
       </c>
       <c r="AH3" t="n">
-        <v>1349680.273443111</v>
+        <v>1502783.770391299</v>
       </c>
     </row>
   </sheetData>
@@ -41156,28 +41156,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>4790.153055253347</v>
+        <v>5005.709549672506</v>
       </c>
       <c r="AB2" t="n">
-        <v>6554.098736836115</v>
+        <v>6849.032642181801</v>
       </c>
       <c r="AC2" t="n">
-        <v>5928.58475212758</v>
+        <v>6195.370579489398</v>
       </c>
       <c r="AD2" t="n">
-        <v>4790153.055253346</v>
+        <v>5005709.549672506</v>
       </c>
       <c r="AE2" t="n">
-        <v>6554098.736836115</v>
+        <v>6849032.642181801</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.228646867952638e-07</v>
+        <v>9.202083322394646e-07</v>
       </c>
       <c r="AG2" t="n">
-        <v>52</v>
+        <v>51.46484375</v>
       </c>
       <c r="AH2" t="n">
-        <v>5928584.75212758</v>
+        <v>6195370.579489398</v>
       </c>
     </row>
     <row r="3">
@@ -41262,28 +41262,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2810.734626471033</v>
+        <v>2968.210751415644</v>
       </c>
       <c r="AB3" t="n">
-        <v>3845.771116798066</v>
+        <v>4061.236898303608</v>
       </c>
       <c r="AC3" t="n">
-        <v>3478.736118984376</v>
+        <v>3673.638148711144</v>
       </c>
       <c r="AD3" t="n">
-        <v>2810734.626471033</v>
+        <v>2968210.751415644</v>
       </c>
       <c r="AE3" t="n">
-        <v>3845771.116798067</v>
+        <v>4061236.898303607</v>
       </c>
       <c r="AF3" t="n">
-        <v>8.591101229410088e-07</v>
+        <v>1.26923280481535e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>38</v>
+        <v>37.314453125</v>
       </c>
       <c r="AH3" t="n">
-        <v>3478736.118984376</v>
+        <v>3673638.148711144</v>
       </c>
     </row>
     <row r="4">
@@ -41368,28 +41368,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>2384.328801195725</v>
+        <v>2533.507640992563</v>
       </c>
       <c r="AB4" t="n">
-        <v>3262.343854959008</v>
+        <v>3466.45692487498</v>
       </c>
       <c r="AC4" t="n">
-        <v>2950.990336169954</v>
+        <v>3135.623141167632</v>
       </c>
       <c r="AD4" t="n">
-        <v>2384328.801195725</v>
+        <v>2533507.640992563</v>
       </c>
       <c r="AE4" t="n">
-        <v>3262343.854959008</v>
+        <v>3466456.92487498</v>
       </c>
       <c r="AF4" t="n">
-        <v>9.457695576255673e-07</v>
+        <v>1.397261790170406e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>34</v>
+        <v>33.896484375</v>
       </c>
       <c r="AH4" t="n">
-        <v>2950990.336169954</v>
+        <v>3135623.141167632</v>
       </c>
     </row>
     <row r="5">
@@ -41474,28 +41474,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>2194.327374290935</v>
+        <v>2335.123767102532</v>
       </c>
       <c r="AB5" t="n">
-        <v>3002.375520396496</v>
+        <v>3195.019356539799</v>
       </c>
       <c r="AC5" t="n">
-        <v>2715.83301459025</v>
+        <v>2890.09119338935</v>
       </c>
       <c r="AD5" t="n">
-        <v>2194327.374290935</v>
+        <v>2335123.767102532</v>
       </c>
       <c r="AE5" t="n">
-        <v>3002375.520396496</v>
+        <v>3195019.356539799</v>
       </c>
       <c r="AF5" t="n">
-        <v>9.911672842046371e-07</v>
+        <v>1.464331519998452e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>33</v>
+        <v>32.34375</v>
       </c>
       <c r="AH5" t="n">
-        <v>2715833.014590249</v>
+        <v>2890091.193389351</v>
       </c>
     </row>
     <row r="6">
@@ -41580,28 +41580,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>2072.188876890214</v>
+        <v>2204.773414917164</v>
       </c>
       <c r="AB6" t="n">
-        <v>2835.260239882443</v>
+        <v>3016.668254028089</v>
       </c>
       <c r="AC6" t="n">
-        <v>2564.666981900803</v>
+        <v>2728.761669784021</v>
       </c>
       <c r="AD6" t="n">
-        <v>2072188.876890215</v>
+        <v>2204773.414917164</v>
       </c>
       <c r="AE6" t="n">
-        <v>2835260.239882443</v>
+        <v>3016668.254028089</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.019134647216472e-06</v>
+        <v>1.505649965272129e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>32</v>
+        <v>31.455078125</v>
       </c>
       <c r="AH6" t="n">
-        <v>2564666.981900802</v>
+        <v>2728761.669784021</v>
       </c>
     </row>
     <row r="7">
@@ -41686,28 +41686,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1981.105358516341</v>
+        <v>2113.775147889309</v>
       </c>
       <c r="AB7" t="n">
-        <v>2710.635751722078</v>
+        <v>2892.160410520197</v>
       </c>
       <c r="AC7" t="n">
-        <v>2451.936479978895</v>
+        <v>2616.136680112779</v>
       </c>
       <c r="AD7" t="n">
-        <v>1981105.358516341</v>
+        <v>2113775.147889309</v>
       </c>
       <c r="AE7" t="n">
-        <v>2710635.751722078</v>
+        <v>2892160.410520197</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.037746730347587e-06</v>
+        <v>1.533147099626795e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>31</v>
+        <v>30.888671875</v>
       </c>
       <c r="AH7" t="n">
-        <v>2451936.479978895</v>
+        <v>2616136.680112779</v>
       </c>
     </row>
     <row r="8">
@@ -41792,28 +41792,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1916.292401528656</v>
+        <v>2048.791598701031</v>
       </c>
       <c r="AB8" t="n">
-        <v>2621.955804625668</v>
+        <v>2803.24705164894</v>
       </c>
       <c r="AC8" t="n">
-        <v>2371.720022570278</v>
+        <v>2535.709087421512</v>
       </c>
       <c r="AD8" t="n">
-        <v>1916292.401528656</v>
+        <v>2048791.598701031</v>
       </c>
       <c r="AE8" t="n">
-        <v>2621955.804625669</v>
+        <v>2803247.05164894</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.051434981962535e-06</v>
+        <v>1.55336985981356e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>31</v>
+        <v>30.48828125</v>
       </c>
       <c r="AH8" t="n">
-        <v>2371720.022570278</v>
+        <v>2535709.087421512</v>
       </c>
     </row>
     <row r="9">
@@ -41898,28 +41898,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1860.604479304345</v>
+        <v>1984.977162546642</v>
       </c>
       <c r="AB9" t="n">
-        <v>2545.761132660628</v>
+        <v>2715.933324808276</v>
       </c>
       <c r="AC9" t="n">
-        <v>2302.797263157688</v>
+        <v>2456.728460124935</v>
       </c>
       <c r="AD9" t="n">
-        <v>1860604.479304345</v>
+        <v>1984977.162546642</v>
       </c>
       <c r="AE9" t="n">
-        <v>2545761.132660628</v>
+        <v>2715933.324808276</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.061873504776811e-06</v>
+        <v>1.56879153304951e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>31</v>
+        <v>30.18880208333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>2302797.263157688</v>
+        <v>2456728.460124935</v>
       </c>
     </row>
     <row r="10">
@@ -42004,28 +42004,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1787.333302393804</v>
+        <v>1919.9177509122</v>
       </c>
       <c r="AB10" t="n">
-        <v>2445.508275915439</v>
+        <v>2626.91616759136</v>
       </c>
       <c r="AC10" t="n">
-        <v>2212.112398354491</v>
+        <v>2376.206975456437</v>
       </c>
       <c r="AD10" t="n">
-        <v>1787333.302393804</v>
+        <v>1919917.7509122</v>
       </c>
       <c r="AE10" t="n">
-        <v>2445508.275915439</v>
+        <v>2626916.167591359</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.070539448245267e-06</v>
+        <v>1.581594431585015e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>30</v>
+        <v>29.94140625</v>
       </c>
       <c r="AH10" t="n">
-        <v>2212112.398354491</v>
+        <v>2376206.975456437</v>
       </c>
     </row>
     <row r="11">
@@ -42110,28 +42110,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1750.407337362074</v>
+        <v>1882.991785880469</v>
       </c>
       <c r="AB11" t="n">
-        <v>2394.984541500422</v>
+        <v>2576.392433176343</v>
       </c>
       <c r="AC11" t="n">
-        <v>2166.410578241536</v>
+        <v>2330.505155343482</v>
       </c>
       <c r="AD11" t="n">
-        <v>1750407.337362074</v>
+        <v>1882991.785880469</v>
       </c>
       <c r="AE11" t="n">
-        <v>2394984.541500422</v>
+        <v>2576392.433176343</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.076546522694992e-06</v>
+        <v>1.590469168069854e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>30</v>
+        <v>29.77864583333333</v>
       </c>
       <c r="AH11" t="n">
-        <v>2166410.578241536</v>
+        <v>2330505.155343482</v>
       </c>
     </row>
     <row r="12">
@@ -42216,28 +42216,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>1742.909922960763</v>
+        <v>1875.494371479158</v>
       </c>
       <c r="AB12" t="n">
-        <v>2384.726248353968</v>
+        <v>2566.13414002989</v>
       </c>
       <c r="AC12" t="n">
-        <v>2157.131322195376</v>
+        <v>2321.225899297322</v>
       </c>
       <c r="AD12" t="n">
-        <v>1742909.922960763</v>
+        <v>1875494.371479159</v>
       </c>
       <c r="AE12" t="n">
-        <v>2384726.248353968</v>
+        <v>2566134.14002989</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.077728242258872e-06</v>
+        <v>1.592215017870151e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>30</v>
+        <v>29.74609375</v>
       </c>
       <c r="AH12" t="n">
-        <v>2157131.322195375</v>
+        <v>2321225.899297322</v>
       </c>
     </row>
     <row r="13">
@@ -42322,28 +42322,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>1746.898729953539</v>
+        <v>1879.483178471935</v>
       </c>
       <c r="AB13" t="n">
-        <v>2390.18391005523</v>
+        <v>2571.591801731151</v>
       </c>
       <c r="AC13" t="n">
-        <v>2162.068112323745</v>
+        <v>2326.162689425691</v>
       </c>
       <c r="AD13" t="n">
-        <v>1746898.729953539</v>
+        <v>1879483.178471935</v>
       </c>
       <c r="AE13" t="n">
-        <v>2390183.91005523</v>
+        <v>2571591.801731152</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.078417578671136e-06</v>
+        <v>1.593233430253657e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>30</v>
+        <v>29.72330729166667</v>
       </c>
       <c r="AH13" t="n">
-        <v>2162068.112323746</v>
+        <v>2326162.689425691</v>
       </c>
     </row>
   </sheetData>
@@ -42619,28 +42619,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>6931.627277905318</v>
+        <v>7204.298706244215</v>
       </c>
       <c r="AB2" t="n">
-        <v>9484.158243443688</v>
+        <v>9857.239321111416</v>
       </c>
       <c r="AC2" t="n">
-        <v>8579.003491788762</v>
+        <v>8916.478235026449</v>
       </c>
       <c r="AD2" t="n">
-        <v>6931627.277905318</v>
+        <v>7204298.706244215</v>
       </c>
       <c r="AE2" t="n">
-        <v>9484158.243443688</v>
+        <v>9857239.321111416</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.086383506390769e-07</v>
+        <v>7.386288529586122e-07</v>
       </c>
       <c r="AG2" t="n">
-        <v>61</v>
+        <v>60.72916666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>8579003.491788762</v>
+        <v>8916478.235026449</v>
       </c>
     </row>
     <row r="3">
@@ -42725,28 +42725,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>3535.467160380527</v>
+        <v>3705.96156584864</v>
       </c>
       <c r="AB3" t="n">
-        <v>4837.382142635951</v>
+        <v>5070.660109879752</v>
       </c>
       <c r="AC3" t="n">
-        <v>4375.709180251071</v>
+        <v>4586.723425708798</v>
       </c>
       <c r="AD3" t="n">
-        <v>3535467.160380527</v>
+        <v>3705961.56584864</v>
       </c>
       <c r="AE3" t="n">
-        <v>4837382.142635951</v>
+        <v>5070660.109879752</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.675124962628459e-07</v>
+        <v>1.114557866180831e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>41</v>
+        <v>40.25065104166666</v>
       </c>
       <c r="AH3" t="n">
-        <v>4375709.180251071</v>
+        <v>4586723.425708799</v>
       </c>
     </row>
     <row r="4">
@@ -42831,28 +42831,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>2908.184561179269</v>
+        <v>3070.064553443552</v>
       </c>
       <c r="AB4" t="n">
-        <v>3979.106416653578</v>
+        <v>4200.597763710811</v>
       </c>
       <c r="AC4" t="n">
-        <v>3599.346084958942</v>
+        <v>3799.698608718081</v>
       </c>
       <c r="AD4" t="n">
-        <v>2908184.561179269</v>
+        <v>3070064.553443552</v>
       </c>
       <c r="AE4" t="n">
-        <v>3979106.416653579</v>
+        <v>4200597.763710811</v>
       </c>
       <c r="AF4" t="n">
-        <v>8.659188338771599e-07</v>
+        <v>1.257460500605846e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>36</v>
+        <v>35.673828125</v>
       </c>
       <c r="AH4" t="n">
-        <v>3599346.084958942</v>
+        <v>3799698.608718081</v>
       </c>
     </row>
     <row r="5">
@@ -42937,28 +42937,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>2635.811140320578</v>
+        <v>2780.803848612592</v>
       </c>
       <c r="AB5" t="n">
-        <v>3606.433085967436</v>
+        <v>3804.818506079418</v>
       </c>
       <c r="AC5" t="n">
-        <v>3262.240173903193</v>
+        <v>3441.691967955367</v>
       </c>
       <c r="AD5" t="n">
-        <v>2635811.140320579</v>
+        <v>2780803.848612592</v>
       </c>
       <c r="AE5" t="n">
-        <v>3606433.085967436</v>
+        <v>3804818.506079418</v>
       </c>
       <c r="AF5" t="n">
-        <v>9.18680573234497e-07</v>
+        <v>1.334079463711255e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>34</v>
+        <v>33.623046875</v>
       </c>
       <c r="AH5" t="n">
-        <v>3262240.173903193</v>
+        <v>3441691.967955367</v>
       </c>
     </row>
     <row r="6">
@@ -43043,28 +43043,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>2486.89951789834</v>
+        <v>2631.806885335782</v>
       </c>
       <c r="AB6" t="n">
-        <v>3402.685634652189</v>
+        <v>3600.954287641974</v>
       </c>
       <c r="AC6" t="n">
-        <v>3077.938093380139</v>
+        <v>3257.284264400373</v>
       </c>
       <c r="AD6" t="n">
-        <v>2486899.517898341</v>
+        <v>2631806.885335782</v>
       </c>
       <c r="AE6" t="n">
-        <v>3402685.634652189</v>
+        <v>3600954.287641974</v>
       </c>
       <c r="AF6" t="n">
-        <v>9.500908892907536e-07</v>
+        <v>1.379692551459259e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>33</v>
+        <v>32.51302083333334</v>
       </c>
       <c r="AH6" t="n">
-        <v>3077938.093380139</v>
+        <v>3257284.264400373</v>
       </c>
     </row>
     <row r="7">
@@ -43149,28 +43149,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>2377.946195571962</v>
+        <v>2522.768222154833</v>
       </c>
       <c r="AB7" t="n">
-        <v>3253.610892363888</v>
+        <v>3451.762778231475</v>
       </c>
       <c r="AC7" t="n">
-        <v>2943.090835268123</v>
+        <v>3122.331383256419</v>
       </c>
       <c r="AD7" t="n">
-        <v>2377946.195571962</v>
+        <v>2522768.222154832</v>
       </c>
       <c r="AE7" t="n">
-        <v>3253610.892363888</v>
+        <v>3451762.778231475</v>
       </c>
       <c r="AF7" t="n">
-        <v>9.723912647385486e-07</v>
+        <v>1.412076465721436e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>32</v>
+        <v>31.767578125</v>
       </c>
       <c r="AH7" t="n">
-        <v>2943090.835268123</v>
+        <v>3122331.383256419</v>
       </c>
     </row>
     <row r="8">
@@ -43255,28 +43255,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>2302.210016583759</v>
+        <v>2438.503149834473</v>
       </c>
       <c r="AB8" t="n">
-        <v>3149.985311027819</v>
+        <v>3336.467588770131</v>
       </c>
       <c r="AC8" t="n">
-        <v>2849.355133975355</v>
+        <v>3018.039804859455</v>
       </c>
       <c r="AD8" t="n">
-        <v>2302210.016583759</v>
+        <v>2438503.149834473</v>
       </c>
       <c r="AE8" t="n">
-        <v>3149985.311027819</v>
+        <v>3336467.588770132</v>
       </c>
       <c r="AF8" t="n">
-        <v>9.889030320913844e-07</v>
+        <v>1.436054342664496e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>32</v>
+        <v>31.23697916666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>2849355.133975355</v>
+        <v>3018039.804859455</v>
       </c>
     </row>
     <row r="9">
@@ -43361,28 +43361,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>2233.029715163327</v>
+        <v>2369.408099760062</v>
       </c>
       <c r="AB9" t="n">
-        <v>3055.32977060488</v>
+        <v>3241.928692999842</v>
       </c>
       <c r="AC9" t="n">
-        <v>2763.7333854805</v>
+        <v>2932.523568615313</v>
       </c>
       <c r="AD9" t="n">
-        <v>2233029.715163327</v>
+        <v>2369408.099760062</v>
       </c>
       <c r="AE9" t="n">
-        <v>3055329.77060488</v>
+        <v>3241928.692999842</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.001239409998676e-06</v>
+        <v>1.453968848426552e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>31</v>
+        <v>30.85286458333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>2763733.3854805</v>
+        <v>2932523.568615313</v>
       </c>
     </row>
     <row r="10">
@@ -43467,28 +43467,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>2184.66212843541</v>
+        <v>2321.040513032147</v>
       </c>
       <c r="AB10" t="n">
-        <v>2989.15110461624</v>
+        <v>3175.750027011377</v>
       </c>
       <c r="AC10" t="n">
-        <v>2703.87071849159</v>
+        <v>2872.660901626448</v>
       </c>
       <c r="AD10" t="n">
-        <v>2184662.12843541</v>
+        <v>2321040.513032147</v>
       </c>
       <c r="AE10" t="n">
-        <v>2989151.10461624</v>
+        <v>3175750.027011377</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.010254455392465e-06</v>
+        <v>1.4670602180219e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>31</v>
+        <v>30.576171875</v>
       </c>
       <c r="AH10" t="n">
-        <v>2703870.71849159</v>
+        <v>2872660.901626448</v>
       </c>
     </row>
     <row r="11">
@@ -43573,28 +43573,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>2139.726195498777</v>
+        <v>2267.575686763359</v>
       </c>
       <c r="AB11" t="n">
-        <v>2927.667778738891</v>
+        <v>3102.597093008751</v>
       </c>
       <c r="AC11" t="n">
-        <v>2648.255274943585</v>
+        <v>2806.489580974247</v>
       </c>
       <c r="AD11" t="n">
-        <v>2139726.195498777</v>
+        <v>2267575.686763359</v>
       </c>
       <c r="AE11" t="n">
-        <v>2927667.778738891</v>
+        <v>3102597.093008751</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.018035862995526e-06</v>
+        <v>1.478360137041043e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>31</v>
+        <v>30.34505208333333</v>
       </c>
       <c r="AH11" t="n">
-        <v>2648255.274943585</v>
+        <v>2806489.580974247</v>
       </c>
     </row>
     <row r="12">
@@ -43679,28 +43679,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>2092.408716782659</v>
+        <v>2220.258208047241</v>
       </c>
       <c r="AB12" t="n">
-        <v>2862.925916859666</v>
+        <v>3037.855231129522</v>
       </c>
       <c r="AC12" t="n">
-        <v>2589.69228549634</v>
+        <v>2747.926591527001</v>
       </c>
       <c r="AD12" t="n">
-        <v>2092408.716782659</v>
+        <v>2220258.208047241</v>
       </c>
       <c r="AE12" t="n">
-        <v>2862925.916859666</v>
+        <v>3037855.231129522</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.024298947163843e-06</v>
+        <v>1.487455193812548e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>31</v>
+        <v>30.15950520833333</v>
       </c>
       <c r="AH12" t="n">
-        <v>2589692.28549634</v>
+        <v>2747926.591527001</v>
       </c>
     </row>
     <row r="13">
@@ -43785,28 +43785,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>2049.30871231767</v>
+        <v>2185.601756059833</v>
       </c>
       <c r="AB13" t="n">
-        <v>2803.954589312667</v>
+        <v>2990.43674458542</v>
       </c>
       <c r="AC13" t="n">
-        <v>2536.349098683649</v>
+        <v>2705.033658786519</v>
       </c>
       <c r="AD13" t="n">
-        <v>2049308.71231767</v>
+        <v>2185601.756059833</v>
       </c>
       <c r="AE13" t="n">
-        <v>2803954.589312667</v>
+        <v>2990436.74458542</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.030467136117488e-06</v>
+        <v>1.496412446693577e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>30</v>
+        <v>29.97721354166667</v>
       </c>
       <c r="AH13" t="n">
-        <v>2536349.098683649</v>
+        <v>2705033.658786519</v>
       </c>
     </row>
     <row r="14">
@@ -43891,28 +43891,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>2011.971323123352</v>
+        <v>2148.264366865515</v>
       </c>
       <c r="AB14" t="n">
-        <v>2752.867926207644</v>
+        <v>2939.350081480398</v>
       </c>
       <c r="AC14" t="n">
-        <v>2490.138075004787</v>
+        <v>2658.822635107657</v>
       </c>
       <c r="AD14" t="n">
-        <v>2011971.323123352</v>
+        <v>2148264.366865515</v>
       </c>
       <c r="AE14" t="n">
-        <v>2752867.926207644</v>
+        <v>2939350.081480398</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.035022106421719e-06</v>
+        <v>1.503027033436489e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>30</v>
+        <v>29.84700520833333</v>
       </c>
       <c r="AH14" t="n">
-        <v>2490138.075004787</v>
+        <v>2658822.635107657</v>
       </c>
     </row>
     <row r="15">
@@ -43997,28 +43997,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>1974.741431537374</v>
+        <v>2111.034475279537</v>
       </c>
       <c r="AB15" t="n">
-        <v>2701.928346072812</v>
+        <v>2888.410501345566</v>
       </c>
       <c r="AC15" t="n">
-        <v>2444.060096903874</v>
+        <v>2612.744657006744</v>
       </c>
       <c r="AD15" t="n">
-        <v>1974741.431537374</v>
+        <v>2111034.475279537</v>
       </c>
       <c r="AE15" t="n">
-        <v>2701928.346072813</v>
+        <v>2888410.501345566</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.038628124579234e-06</v>
+        <v>1.508263581274629e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>30</v>
+        <v>29.73958333333333</v>
       </c>
       <c r="AH15" t="n">
-        <v>2444060.096903874</v>
+        <v>2612744.657006744</v>
       </c>
     </row>
     <row r="16">
@@ -44103,28 +44103,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>1948.87044470652</v>
+        <v>2076.80518731712</v>
       </c>
       <c r="AB16" t="n">
-        <v>2666.530520543452</v>
+        <v>2841.576479465778</v>
       </c>
       <c r="AC16" t="n">
-        <v>2412.040590161875</v>
+        <v>2570.380408443201</v>
       </c>
       <c r="AD16" t="n">
-        <v>1948870.44470652</v>
+        <v>2076805.18731712</v>
       </c>
       <c r="AE16" t="n">
-        <v>2666530.520543452</v>
+        <v>2841576.479465778</v>
       </c>
       <c r="AF16" t="n">
-        <v>1.041190295375364e-06</v>
+        <v>1.511984286317517e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>30</v>
+        <v>29.66796875</v>
       </c>
       <c r="AH16" t="n">
-        <v>2412040.590161875</v>
+        <v>2570380.408443201</v>
       </c>
     </row>
     <row r="17">
@@ -44209,28 +44209,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>1942.811364486806</v>
+        <v>2070.746107097406</v>
       </c>
       <c r="AB17" t="n">
-        <v>2658.240219679085</v>
+        <v>2833.286178601413</v>
       </c>
       <c r="AC17" t="n">
-        <v>2404.541503976493</v>
+        <v>2562.88132225782</v>
       </c>
       <c r="AD17" t="n">
-        <v>1942811.364486806</v>
+        <v>2070746.107097406</v>
       </c>
       <c r="AE17" t="n">
-        <v>2658240.219679085</v>
+        <v>2833286.178601413</v>
       </c>
       <c r="AF17" t="n">
-        <v>1.042423933166093e-06</v>
+        <v>1.513775736893723e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>30</v>
+        <v>29.63216145833333</v>
       </c>
       <c r="AH17" t="n">
-        <v>2404541.503976493</v>
+        <v>2562881.32225782</v>
       </c>
     </row>
     <row r="18">
@@ -44315,28 +44315,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>1945.628168914422</v>
+        <v>2073.562911525022</v>
       </c>
       <c r="AB18" t="n">
-        <v>2662.09429576559</v>
+        <v>2837.140254687917</v>
       </c>
       <c r="AC18" t="n">
-        <v>2408.027752450531</v>
+        <v>2566.367570731858</v>
       </c>
       <c r="AD18" t="n">
-        <v>1945628.168914422</v>
+        <v>2073562.911525022</v>
       </c>
       <c r="AE18" t="n">
-        <v>2662094.29576559</v>
+        <v>2837140.254687917</v>
       </c>
       <c r="AF18" t="n">
-        <v>1.042803514024779e-06</v>
+        <v>1.514326952455632e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>30</v>
+        <v>29.62239583333333</v>
       </c>
       <c r="AH18" t="n">
-        <v>2408027.752450531</v>
+        <v>2566367.570731858</v>
       </c>
     </row>
     <row r="19">
@@ -44421,28 +44421,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>1953.645145688318</v>
+        <v>2081.579888298917</v>
       </c>
       <c r="AB19" t="n">
-        <v>2673.063477071688</v>
+        <v>2848.109435994015</v>
       </c>
       <c r="AC19" t="n">
-        <v>2417.950050488118</v>
+        <v>2576.289868769445</v>
       </c>
       <c r="AD19" t="n">
-        <v>1953645.145688318</v>
+        <v>2081579.888298917</v>
       </c>
       <c r="AE19" t="n">
-        <v>2673063.477071688</v>
+        <v>2848109.435994015</v>
       </c>
       <c r="AF19" t="n">
-        <v>1.042898409239451e-06</v>
+        <v>1.51446475634611e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>30</v>
+        <v>29.619140625</v>
       </c>
       <c r="AH19" t="n">
-        <v>2417950.050488118</v>
+        <v>2576289.868769445</v>
       </c>
     </row>
   </sheetData>
@@ -44718,28 +44718,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>983.0825454688843</v>
+        <v>1110.908563878421</v>
       </c>
       <c r="AB2" t="n">
-        <v>1345.096909251495</v>
+        <v>1519.994106925354</v>
       </c>
       <c r="AC2" t="n">
-        <v>1216.722748087901</v>
+        <v>1374.928002685525</v>
       </c>
       <c r="AD2" t="n">
-        <v>983082.5454688843</v>
+        <v>1110908.563878421</v>
       </c>
       <c r="AE2" t="n">
-        <v>1345096.909251495</v>
+        <v>1519994.106925354</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.15179604267065e-06</v>
+        <v>1.919975380227404e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>35</v>
+        <v>34.45963541666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>1216722.748087901</v>
+        <v>1374928.002685525</v>
       </c>
     </row>
   </sheetData>
@@ -45015,28 +45015,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2906.032346965583</v>
+        <v>3080.512315378368</v>
       </c>
       <c r="AB2" t="n">
-        <v>3976.161662217423</v>
+        <v>4214.892852512754</v>
       </c>
       <c r="AC2" t="n">
-        <v>3596.682373753184</v>
+        <v>3812.629394308049</v>
       </c>
       <c r="AD2" t="n">
-        <v>2906032.346965583</v>
+        <v>3080512.315378368</v>
       </c>
       <c r="AE2" t="n">
-        <v>3976161.662217423</v>
+        <v>4214892.852512754</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.036960233223646e-07</v>
+        <v>1.223150299745819e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>43</v>
+        <v>42.33072916666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>3596682.373753184</v>
+        <v>3812629.394308049</v>
       </c>
     </row>
     <row r="3">
@@ -45121,28 +45121,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1991.553541585588</v>
+        <v>2126.491486828438</v>
       </c>
       <c r="AB3" t="n">
-        <v>2724.931416738728</v>
+        <v>2909.559466461994</v>
       </c>
       <c r="AC3" t="n">
-        <v>2464.867786790446</v>
+        <v>2631.875194575219</v>
       </c>
       <c r="AD3" t="n">
-        <v>1991553.541585588</v>
+        <v>2126491.486828438</v>
       </c>
       <c r="AE3" t="n">
-        <v>2724931.416738729</v>
+        <v>2909559.466461994</v>
       </c>
       <c r="AF3" t="n">
-        <v>9.992376695689373e-07</v>
+        <v>1.520746425990868e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>35</v>
+        <v>34.04622395833334</v>
       </c>
       <c r="AH3" t="n">
-        <v>2464867.786790446</v>
+        <v>2631875.194575219</v>
       </c>
     </row>
     <row r="4">
@@ -45227,28 +45227,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1739.855359184642</v>
+        <v>1874.707874064369</v>
       </c>
       <c r="AB4" t="n">
-        <v>2380.546859437637</v>
+        <v>2565.058019569156</v>
       </c>
       <c r="AC4" t="n">
-        <v>2153.35080829141</v>
+        <v>2320.252482263017</v>
       </c>
       <c r="AD4" t="n">
-        <v>1739855.359184642</v>
+        <v>1874707.874064369</v>
       </c>
       <c r="AE4" t="n">
-        <v>2380546.859437637</v>
+        <v>2565058.019569156</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.06821548171364e-06</v>
+        <v>1.625724215045776e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>32</v>
+        <v>31.84895833333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>2153350.80829141</v>
+        <v>2320252.482263017</v>
       </c>
     </row>
     <row r="5">
@@ -45333,28 +45333,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1603.756794446695</v>
+        <v>1730.752109205178</v>
       </c>
       <c r="AB5" t="n">
-        <v>2194.330798918261</v>
+        <v>2368.091391208689</v>
       </c>
       <c r="AC5" t="n">
-        <v>1984.906947232121</v>
+        <v>2142.084072468873</v>
       </c>
       <c r="AD5" t="n">
-        <v>1603756.794446696</v>
+        <v>1730752.109205178</v>
       </c>
       <c r="AE5" t="n">
-        <v>2194330.798918261</v>
+        <v>2368091.391208689</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.1044810890079e-06</v>
+        <v>1.680917082927674e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>31</v>
+        <v>30.80403645833333</v>
       </c>
       <c r="AH5" t="n">
-        <v>1984906.947232121</v>
+        <v>2142084.072468873</v>
       </c>
     </row>
     <row r="6">
@@ -45439,28 +45439,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1510.958145201918</v>
+        <v>1630.011008493136</v>
       </c>
       <c r="AB6" t="n">
-        <v>2067.359593034091</v>
+        <v>2230.252972830779</v>
       </c>
       <c r="AC6" t="n">
-        <v>1870.053695032329</v>
+        <v>2017.400759283516</v>
       </c>
       <c r="AD6" t="n">
-        <v>1510958.145201918</v>
+        <v>1630011.008493136</v>
       </c>
       <c r="AE6" t="n">
-        <v>2067359.593034091</v>
+        <v>2230252.972830779</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.125592479997642e-06</v>
+        <v>1.713046648668722e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>31</v>
+        <v>30.224609375</v>
       </c>
       <c r="AH6" t="n">
-        <v>1870053.695032329</v>
+        <v>2017400.759283516</v>
       </c>
     </row>
     <row r="7">
@@ -45545,28 +45545,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1489.239203851122</v>
+        <v>1608.292067142339</v>
       </c>
       <c r="AB7" t="n">
-        <v>2037.642779305863</v>
+        <v>2200.536159102551</v>
       </c>
       <c r="AC7" t="n">
-        <v>1843.173012298513</v>
+        <v>1990.5200765497</v>
       </c>
       <c r="AD7" t="n">
-        <v>1489239.203851122</v>
+        <v>1608292.067142339</v>
       </c>
       <c r="AE7" t="n">
-        <v>2037642.779305863</v>
+        <v>2200536.159102551</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.130295512643872e-06</v>
+        <v>1.720204225195193e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>31</v>
+        <v>30.10091145833333</v>
       </c>
       <c r="AH7" t="n">
-        <v>1843173.012298513</v>
+        <v>1990520.0765497</v>
       </c>
     </row>
     <row r="8">
@@ -45651,28 +45651,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1496.055517596109</v>
+        <v>1615.108380887326</v>
       </c>
       <c r="AB8" t="n">
-        <v>2046.969160486293</v>
+        <v>2209.862540282981</v>
       </c>
       <c r="AC8" t="n">
-        <v>1851.609296748742</v>
+        <v>1998.956360999927</v>
       </c>
       <c r="AD8" t="n">
-        <v>1496055.517596109</v>
+        <v>1615108.380887326</v>
       </c>
       <c r="AE8" t="n">
-        <v>2046969.160486293</v>
+        <v>2209862.540282981</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.131131607336535e-06</v>
+        <v>1.721476683244343e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>31</v>
+        <v>30.078125</v>
       </c>
       <c r="AH8" t="n">
-        <v>1851609.296748742</v>
+        <v>1998956.360999927</v>
       </c>
     </row>
   </sheetData>
@@ -45948,28 +45948,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>3959.283070852667</v>
+        <v>4163.267917969303</v>
       </c>
       <c r="AB2" t="n">
-        <v>5417.265768782337</v>
+        <v>5696.36683578366</v>
       </c>
       <c r="AC2" t="n">
-        <v>4900.249526989805</v>
+        <v>5152.713579877319</v>
       </c>
       <c r="AD2" t="n">
-        <v>3959283.070852667</v>
+        <v>4163267.917969303</v>
       </c>
       <c r="AE2" t="n">
-        <v>5417265.768782336</v>
+        <v>5696366.83578366</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.88559747690765e-07</v>
+        <v>1.027958210800187e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>48</v>
+        <v>47.57161458333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>4900249.526989806</v>
+        <v>5152713.579877319</v>
       </c>
     </row>
     <row r="3">
@@ -46054,28 +46054,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2471.237861629782</v>
+        <v>2626.225381828232</v>
       </c>
       <c r="AB3" t="n">
-        <v>3381.256665602036</v>
+        <v>3593.317428304387</v>
       </c>
       <c r="AC3" t="n">
-        <v>3058.554275060386</v>
+        <v>3250.376256199566</v>
       </c>
       <c r="AD3" t="n">
-        <v>2471237.861629782</v>
+        <v>2626225.381828232</v>
       </c>
       <c r="AE3" t="n">
-        <v>3381256.665602036</v>
+        <v>3593317.428304387</v>
       </c>
       <c r="AF3" t="n">
-        <v>9.106335988019032e-07</v>
+        <v>1.359494637986511e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>36</v>
+        <v>35.97005208333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>3058554.275060386</v>
+        <v>3250376.256199566</v>
       </c>
     </row>
     <row r="4">
@@ -46160,28 +46160,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>2135.730405379803</v>
+        <v>2274.385572780743</v>
       </c>
       <c r="AB4" t="n">
-        <v>2922.200562416291</v>
+        <v>3111.914679488704</v>
       </c>
       <c r="AC4" t="n">
-        <v>2643.309842073529</v>
+        <v>2814.917910077868</v>
       </c>
       <c r="AD4" t="n">
-        <v>2135730.405379803</v>
+        <v>2274385.572780743</v>
       </c>
       <c r="AE4" t="n">
-        <v>2922200.562416291</v>
+        <v>3111914.679488704</v>
       </c>
       <c r="AF4" t="n">
-        <v>9.90930351491839e-07</v>
+        <v>1.479370518772504e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>34</v>
+        <v>33.05338541666666</v>
       </c>
       <c r="AH4" t="n">
-        <v>2643309.842073529</v>
+        <v>2814917.910077868</v>
       </c>
     </row>
     <row r="5">
@@ -46266,28 +46266,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1964.164999861351</v>
+        <v>2102.820077753739</v>
       </c>
       <c r="AB5" t="n">
-        <v>2687.457205654444</v>
+        <v>2877.171200257125</v>
       </c>
       <c r="AC5" t="n">
-        <v>2430.970061816661</v>
+        <v>2602.578019039726</v>
       </c>
       <c r="AD5" t="n">
-        <v>1964164.999861351</v>
+        <v>2102820.077753739</v>
       </c>
       <c r="AE5" t="n">
-        <v>2687457.205654444</v>
+        <v>2877171.200257125</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.03268868779049e-06</v>
+        <v>1.541711985597299e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>32</v>
+        <v>31.71875</v>
       </c>
       <c r="AH5" t="n">
-        <v>2430970.061816661</v>
+        <v>2602578.019039726</v>
       </c>
     </row>
     <row r="6">
@@ -46372,28 +46372,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1856.536923261467</v>
+        <v>1987.111120855394</v>
       </c>
       <c r="AB6" t="n">
-        <v>2540.195723034853</v>
+        <v>2718.853100709906</v>
       </c>
       <c r="AC6" t="n">
-        <v>2297.763008415496</v>
+        <v>2459.369576712445</v>
       </c>
       <c r="AD6" t="n">
-        <v>1856536.923261467</v>
+        <v>1987111.120855394</v>
       </c>
       <c r="AE6" t="n">
-        <v>2540195.723034854</v>
+        <v>2718853.100709906</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.057441822078364e-06</v>
+        <v>1.578666204486215e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>31</v>
+        <v>30.97330729166667</v>
       </c>
       <c r="AH6" t="n">
-        <v>2297763.008415496</v>
+        <v>2459369.576712445</v>
       </c>
     </row>
     <row r="7">
@@ -46478,28 +46478,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1779.241331246297</v>
+        <v>1909.644936639632</v>
       </c>
       <c r="AB7" t="n">
-        <v>2434.436483998847</v>
+        <v>2612.860449899052</v>
       </c>
       <c r="AC7" t="n">
-        <v>2202.097282719062</v>
+        <v>2363.49271573336</v>
       </c>
       <c r="AD7" t="n">
-        <v>1779241.331246297</v>
+        <v>1909644.936639632</v>
       </c>
       <c r="AE7" t="n">
-        <v>2434436.483998847</v>
+        <v>2612860.449899052</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.074648269083351e-06</v>
+        <v>1.60435389322607e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>31</v>
+        <v>30.478515625</v>
       </c>
       <c r="AH7" t="n">
-        <v>2202097.282719062</v>
+        <v>2363492.71573336</v>
       </c>
     </row>
     <row r="8">
@@ -46584,28 +46584,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1710.515993517414</v>
+        <v>1832.924059466861</v>
       </c>
       <c r="AB8" t="n">
-        <v>2340.403444970274</v>
+        <v>2507.887561065046</v>
       </c>
       <c r="AC8" t="n">
-        <v>2117.038624959176</v>
+        <v>2268.538292079296</v>
       </c>
       <c r="AD8" t="n">
-        <v>1710515.993517414</v>
+        <v>1832924.059466861</v>
       </c>
       <c r="AE8" t="n">
-        <v>2340403.444970274</v>
+        <v>2507887.561065046</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.088332928689656e-06</v>
+        <v>1.624783867896365e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>31</v>
+        <v>30.09765625</v>
       </c>
       <c r="AH8" t="n">
-        <v>2117038.624959176</v>
+        <v>2268538.292079296</v>
       </c>
     </row>
     <row r="9">
@@ -46690,28 +46690,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1650.433635417389</v>
+        <v>1780.922492156745</v>
       </c>
       <c r="AB9" t="n">
-        <v>2258.196111971253</v>
+        <v>2436.736722524106</v>
       </c>
       <c r="AC9" t="n">
-        <v>2042.677044442865</v>
+        <v>2204.177989707875</v>
       </c>
       <c r="AD9" t="n">
-        <v>1650433.635417389</v>
+        <v>1780922.492156744</v>
       </c>
       <c r="AE9" t="n">
-        <v>2258196.111971253</v>
+        <v>2436736.722524107</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.095577748481229e-06</v>
+        <v>1.635599736839462e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>30</v>
+        <v>29.89583333333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>2042677.044442865</v>
+        <v>2204177.989707875</v>
       </c>
     </row>
     <row r="10">
@@ -46796,28 +46796,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1643.250106381205</v>
+        <v>1773.738963120561</v>
       </c>
       <c r="AB10" t="n">
-        <v>2248.367290629013</v>
+        <v>2426.907901181867</v>
       </c>
       <c r="AC10" t="n">
-        <v>2033.786272014691</v>
+        <v>2195.287217279701</v>
       </c>
       <c r="AD10" t="n">
-        <v>1643250.106381205</v>
+        <v>1773738.963120561</v>
       </c>
       <c r="AE10" t="n">
-        <v>2248367.290629013</v>
+        <v>2426907.901181867</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.097690820920438e-06</v>
+        <v>1.638754365281199e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>30</v>
+        <v>29.84049479166667</v>
       </c>
       <c r="AH10" t="n">
-        <v>2033786.272014691</v>
+        <v>2195287.217279701</v>
       </c>
     </row>
     <row r="11">
@@ -46902,28 +46902,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1648.592023149005</v>
+        <v>1779.08087988836</v>
       </c>
       <c r="AB11" t="n">
-        <v>2255.676336819451</v>
+        <v>2434.216947372304</v>
       </c>
       <c r="AC11" t="n">
-        <v>2040.397753095024</v>
+        <v>2201.898698360034</v>
       </c>
       <c r="AD11" t="n">
-        <v>1648592.023149005</v>
+        <v>1779080.87988836</v>
       </c>
       <c r="AE11" t="n">
-        <v>2255676.336819451</v>
+        <v>2434216.947372304</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.098294555903069e-06</v>
+        <v>1.639655687693123e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>30</v>
+        <v>29.82421875</v>
       </c>
       <c r="AH11" t="n">
-        <v>2040397.753095024</v>
+        <v>2201898.698360034</v>
       </c>
     </row>
   </sheetData>
